--- a/Informe Diario/Daily Utilisation Report.xlsx
+++ b/Informe Diario/Daily Utilisation Report.xlsx
@@ -258,6 +258,15 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="6" borderId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="7" borderId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="8" borderId="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="5" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
@@ -267,22 +276,13 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="7" borderId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="8" borderId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="6" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="9" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="2" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="4" fillId="2" borderId="0">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="4" fillId="9" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="2" borderId="7">
@@ -391,7 +391,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>444055</xdr:colOff>
+      <xdr:colOff>304190</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>495286</xdr:rowOff>
     </xdr:to>
@@ -529,7 +529,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -561,7 +561,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -593,7 +593,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -625,7 +625,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -657,7 +657,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14" cstate="print"/>
+        <a:blip r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -689,7 +689,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15" cstate="print"/>
+        <a:blip r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -721,7 +721,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16" cstate="print"/>
+        <a:blip r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -753,7 +753,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -785,7 +785,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -817,7 +817,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17" cstate="print"/>
+        <a:blip r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -849,7 +849,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -881,7 +881,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -913,7 +913,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -945,7 +945,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15" cstate="print"/>
+        <a:blip r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -977,7 +977,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18" cstate="print"/>
+        <a:blip r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1009,7 +1009,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
+        <a:blip r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1041,7 +1041,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10" cstate="print"/>
+        <a:blip r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1073,7 +1073,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId26" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1105,7 +1105,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18" cstate="print"/>
+        <a:blip r:embed="rId27" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1137,7 +1137,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1169,7 +1169,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16" cstate="print"/>
+        <a:blip r:embed="rId28" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1201,7 +1201,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17" cstate="print"/>
+        <a:blip r:embed="rId29" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1233,7 +1233,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId30" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1265,7 +1265,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11" cstate="print"/>
+        <a:blip r:embed="rId31" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1329,7 +1329,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1361,7 +1361,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16" cstate="print"/>
+        <a:blip r:embed="rId32" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1393,7 +1393,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1425,7 +1425,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId33" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1457,7 +1457,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17" cstate="print"/>
+        <a:blip r:embed="rId29" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12" cstate="print"/>
+        <a:blip r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1521,7 +1521,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13" cstate="print"/>
+        <a:blip r:embed="rId26" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1558,15 +1558,39 @@
     <col min="8" max="8" customWidth="1" width="7.11328125"/>
     <col min="9" max="9" customWidth="1" width="7.12109375"/>
     <col min="10" max="10" customWidth="1" width="7.12109375"/>
-    <col min="11" max="11" customWidth="1" width="9.4921875"/>
-    <col min="12" max="12" customWidth="1" width="0.4921875"/>
+    <col min="11" max="11" customWidth="1" width="7.12109375"/>
+    <col min="12" max="12" customWidth="1" width="2.8515625"/>
     <col min="13" max="13" customWidth="1" width="0.09375"/>
-    <col min="14" max="14" customWidth="1" width="7.79296875"/>
-    <col min="15" max="15" customWidth="1" width="8.5625"/>
-    <col min="16" max="16" customWidth="1" width="5.76171875"/>
-    <col min="17" max="17" customWidth="1" width="6.921875"/>
-    <col min="18" max="18" customWidth="1" width="1.6328125"/>
-    <col min="19" max="19" customWidth="1" width="6.7421875"/>
+    <col min="14" max="14" customWidth="1" width="4.18359375"/>
+    <col min="15" max="15" customWidth="1" width="7.11328125"/>
+    <col min="16" max="16" customWidth="1" width="7.12109375"/>
+    <col min="17" max="17" customWidth="1" width="7.12109375"/>
+    <col min="18" max="18" customWidth="1" width="7.12109375"/>
+    <col min="19" max="19" customWidth="1" width="4.75390625"/>
+    <col min="20" max="20" customWidth="1" width="2.37109375"/>
+    <col min="21" max="21" customWidth="1" width="7.11328125"/>
+    <col min="22" max="22" customWidth="1" width="7.12109375"/>
+    <col min="23" max="23" customWidth="1" width="7.12109375"/>
+    <col min="24" max="24" customWidth="1" width="7.12109375"/>
+    <col min="25" max="25" customWidth="1" width="7.12109375"/>
+    <col min="26" max="26" customWidth="1" width="7.12109375"/>
+    <col min="27" max="27" customWidth="1" width="7.11328125"/>
+    <col min="28" max="28" customWidth="1" width="7.12109375"/>
+    <col min="29" max="29" customWidth="1" width="7.12109375"/>
+    <col min="30" max="30" customWidth="1" width="7.12109375"/>
+    <col min="31" max="31" customWidth="1" width="7.12109375"/>
+    <col min="32" max="32" customWidth="1" width="7.11328125"/>
+    <col min="33" max="33" customWidth="1" width="7.12109375"/>
+    <col min="34" max="34" customWidth="1" width="7.12109375"/>
+    <col min="35" max="35" customWidth="1" width="7.12109375"/>
+    <col min="36" max="36" customWidth="1" width="7.12109375"/>
+    <col min="37" max="37" customWidth="1" width="9.4921875"/>
+    <col min="38" max="38" customWidth="1" width="8.3515625"/>
+    <col min="39" max="39" customWidth="1" width="8.57421875"/>
+    <col min="40" max="40" customWidth="1" width="5.75390625"/>
+    <col min="41" max="41" customWidth="1" width="6.93359375"/>
+    <col min="42" max="42" customWidth="1" width="1.62109375"/>
+    <col min="43" max="43" customWidth="1" width="0.0234375"/>
   </cols>
   <sheetData>
     <row r="1" ht="4.75" customHeight="0">
@@ -1692,7 +1716,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">15/01/2024</t>
+            <t xml:space="preserve">7/02/2024</t>
           </r>
         </is>
       </c>
@@ -1714,6 +1738,29 @@
       <c s="2" t="str" r="Q1"/>
       <c s="2" t="str" r="R1"/>
       <c s="2" t="str" r="S1"/>
+      <c s="2" t="str" r="T1"/>
+      <c s="2" t="str" r="U1"/>
+      <c s="2" t="str" r="V1"/>
+      <c s="2" t="str" r="W1"/>
+      <c s="2" t="str" r="X1"/>
+      <c s="2" t="str" r="Y1"/>
+      <c s="2" t="str" r="Z1"/>
+      <c s="2" t="str" r="AA1"/>
+      <c s="2" t="str" r="AB1"/>
+      <c s="2" t="str" r="AC1"/>
+      <c s="2" t="str" r="AD1"/>
+      <c s="2" t="str" r="AE1"/>
+      <c s="2" t="str" r="AF1"/>
+      <c s="2" t="str" r="AG1"/>
+      <c s="2" t="str" r="AH1"/>
+      <c s="2" t="str" r="AI1"/>
+      <c s="2" t="str" r="AJ1"/>
+      <c s="2" t="str" r="AK1"/>
+      <c s="2" t="str" r="AL1"/>
+      <c s="2" t="str" r="AM1"/>
+      <c s="2" t="str" r="AN1"/>
+      <c s="2" t="str" r="AO1"/>
+      <c s="2" t="str" r="AP1"/>
     </row>
     <row r="2" ht="46.65" customHeight="1">
       <c s="2" t="str" r="A2"/>
@@ -1735,6 +1782,29 @@
       <c s="2" t="str" r="Q2"/>
       <c s="2" t="str" r="R2"/>
       <c s="2" t="str" r="S2"/>
+      <c s="2" t="str" r="T2"/>
+      <c s="2" t="str" r="U2"/>
+      <c s="2" t="str" r="V2"/>
+      <c s="2" t="str" r="W2"/>
+      <c s="2" t="str" r="X2"/>
+      <c s="2" t="str" r="Y2"/>
+      <c s="2" t="str" r="Z2"/>
+      <c s="2" t="str" r="AA2"/>
+      <c s="2" t="str" r="AB2"/>
+      <c s="2" t="str" r="AC2"/>
+      <c s="2" t="str" r="AD2"/>
+      <c s="2" t="str" r="AE2"/>
+      <c s="2" t="str" r="AF2"/>
+      <c s="2" t="str" r="AG2"/>
+      <c s="2" t="str" r="AH2"/>
+      <c s="2" t="str" r="AI2"/>
+      <c s="2" t="str" r="AJ2"/>
+      <c s="2" t="str" r="AK2"/>
+      <c s="2" t="str" r="AL2"/>
+      <c s="2" t="str" r="AM2"/>
+      <c s="2" t="str" r="AN2"/>
+      <c s="2" t="str" r="AO2"/>
+      <c s="2" t="str" r="AP2"/>
     </row>
     <row r="3" ht="0.25" customHeight="0">
       <c s="3" t="str" r="A3"/>
@@ -1756,6 +1826,29 @@
       <c s="3" t="str" r="Q3"/>
       <c s="3" t="str" r="R3"/>
       <c s="3" t="str" r="S3"/>
+      <c s="3" t="str" r="T3"/>
+      <c s="3" t="str" r="U3"/>
+      <c s="3" t="str" r="V3"/>
+      <c s="3" t="str" r="W3"/>
+      <c s="3" t="str" r="X3"/>
+      <c s="3" t="str" r="Y3"/>
+      <c s="3" t="str" r="Z3"/>
+      <c s="3" t="str" r="AA3"/>
+      <c s="3" t="str" r="AB3"/>
+      <c s="3" t="str" r="AC3"/>
+      <c s="3" t="str" r="AD3"/>
+      <c s="3" t="str" r="AE3"/>
+      <c s="3" t="str" r="AF3"/>
+      <c s="3" t="str" r="AG3"/>
+      <c s="3" t="str" r="AH3"/>
+      <c s="3" t="str" r="AI3"/>
+      <c s="3" t="str" r="AJ3"/>
+      <c s="3" t="str" r="AK3"/>
+      <c s="3" t="str" r="AL3"/>
+      <c s="3" t="str" r="AM3"/>
+      <c s="3" t="str" r="AN3"/>
+      <c s="3" t="str" r="AO3"/>
+      <c s="3" t="str" r="AP3"/>
     </row>
     <row r="4" ht="17" customHeight="0">
       <c s="2" t="str" r="A4"/>
@@ -1775,28 +1868,55 @@
       <c s="5" t="str" r="G4"/>
       <c s="5" t="str" r="H4"/>
       <c s="5" t="str" r="I4"/>
-      <c s="6" t="str" r="J4"/>
-      <c s="7" t="inlineStr" r="K4">
-        <is>
-          <t xml:space="preserve">Uso Desglose</t>
-        </is>
-      </c>
+      <c s="5" t="str" r="J4"/>
+      <c s="5" t="str" r="K4"/>
       <c s="5" t="str" r="L4"/>
       <c s="5" t="str" r="M4"/>
       <c s="5" t="str" r="N4"/>
-      <c s="6" t="str" r="O4"/>
-      <c s="7" t="inlineStr" r="P4">
+      <c s="5" t="str" r="O4"/>
+      <c s="5" t="str" r="P4"/>
+      <c s="5" t="str" r="Q4"/>
+      <c s="5" t="str" r="R4"/>
+      <c s="5" t="str" r="S4"/>
+      <c s="5" t="str" r="T4"/>
+      <c s="5" t="str" r="U4"/>
+      <c s="5" t="str" r="V4"/>
+      <c s="5" t="str" r="W4"/>
+      <c s="5" t="str" r="X4"/>
+      <c s="5" t="str" r="Y4"/>
+      <c s="5" t="str" r="Z4"/>
+      <c s="5" t="str" r="AA4"/>
+      <c s="5" t="str" r="AB4"/>
+      <c s="6" t="str" r="AC4"/>
+      <c s="7" t="inlineStr" r="AD4">
+        <is>
+          <t xml:space="preserve">Feb -2024</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="AE4"/>
+      <c s="5" t="str" r="AF4"/>
+      <c s="5" t="str" r="AG4"/>
+      <c s="5" t="str" r="AH4"/>
+      <c s="5" t="str" r="AI4"/>
+      <c s="6" t="str" r="AJ4"/>
+      <c s="7" t="inlineStr" r="AK4">
+        <is>
+          <t xml:space="preserve">Uso Desglose</t>
+        </is>
+      </c>
+      <c s="5" t="str" r="AL4"/>
+      <c s="6" t="str" r="AM4"/>
+      <c s="7" t="inlineStr" r="AN4">
         <is>
           <t xml:space="preserve">día(s)</t>
         </is>
       </c>
-      <c s="6" t="str" r="Q4"/>
-      <c s="8" t="inlineStr" r="R4">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S4"/>
+      <c s="6" t="str" r="AO4"/>
+      <c s="8" t="inlineStr" r="AP4">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="5" ht="17" customHeight="0">
       <c s="2" t="str" r="A5"/>
@@ -1847,37 +1967,152 @@
       </c>
       <c s="9" t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">Distancia de lunes a viernes (km)</t>
-        </is>
-      </c>
-      <c s="7" t="inlineStr" r="L5">
-        <is>
-          <t xml:space="preserve">Distancia en fin de semana (km)</t>
+          <t xml:space="preserve">Ma-16</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="L5">
+        <is>
+          <t xml:space="preserve">Mi-17</t>
         </is>
       </c>
       <c s="5" t="str" r="M5"/>
       <c s="6" t="str" r="N5"/>
       <c s="9" t="inlineStr" r="O5">
         <is>
+          <t xml:space="preserve">Ju-18</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="P5">
+        <is>
+          <t xml:space="preserve">Vi-19</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Q5">
+        <is>
+          <t xml:space="preserve">Sa-20</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="R5">
+        <is>
+          <t xml:space="preserve">Su-21</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="S5">
+        <is>
+          <t xml:space="preserve">Lu-22</t>
+        </is>
+      </c>
+      <c s="6" t="str" r="T5"/>
+      <c s="9" t="inlineStr" r="U5">
+        <is>
+          <t xml:space="preserve">Ma-23</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="V5">
+        <is>
+          <t xml:space="preserve">Mi-24</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="W5">
+        <is>
+          <t xml:space="preserve">Ju-25</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="X5">
+        <is>
+          <t xml:space="preserve">Vi-26</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Y5">
+        <is>
+          <t xml:space="preserve">Sa-27</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="Z5">
+        <is>
+          <t xml:space="preserve">Su-28</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AA5">
+        <is>
+          <t xml:space="preserve">Lu-29</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AB5">
+        <is>
+          <t xml:space="preserve">Ma-30</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AC5">
+        <is>
+          <t xml:space="preserve">Mi-31</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AD5">
+        <is>
+          <t xml:space="preserve">Ju-1</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AE5">
+        <is>
+          <t xml:space="preserve">Vi-2</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="AF5">
+        <is>
+          <t xml:space="preserve">Sa-3</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr" r="AG5">
+        <is>
+          <t xml:space="preserve">Su-4</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AH5">
+        <is>
+          <t xml:space="preserve">Lu-5</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AI5">
+        <is>
+          <t xml:space="preserve">Ma-6</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AJ5">
+        <is>
+          <t xml:space="preserve">Mi-7</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AK5">
+        <is>
+          <t xml:space="preserve">Distancia de lunes a viernes (km)</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AL5">
+        <is>
+          <t xml:space="preserve">Distancia en fin de semana (km)</t>
+        </is>
+      </c>
+      <c s="9" t="inlineStr" r="AM5">
+        <is>
           <t xml:space="preserve">Total Distancia (km)</t>
         </is>
       </c>
-      <c s="9" t="inlineStr" r="P5">
+      <c s="9" t="inlineStr" r="AN5">
         <is>
           <t xml:space="preserve">Con Viajes</t>
         </is>
       </c>
-      <c s="9" t="inlineStr" r="Q5">
+      <c s="9" t="inlineStr" r="AO5">
         <is>
           <t xml:space="preserve">Sin viajes</t>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="R5">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S5"/>
+      <c s="8" t="inlineStr" r="AP5">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="6" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A6"/>
@@ -1925,85 +2160,241 @@
       <c s="14" r="K6">
         <v>0</v>
       </c>
-      <c s="14" r="L6">
-        <v>0</v>
+      <c s="15" r="L6">
+        <v>156.5</v>
       </c>
       <c s="2" t="str" r="M6"/>
       <c s="2" t="str" r="N6"/>
       <c s="14" r="O6">
         <v>0</v>
       </c>
-      <c s="15" r="P6">
-        <v>0</v>
-      </c>
-      <c s="15" r="Q6">
-        <v>5</v>
-      </c>
-      <c s="16" t="inlineStr" r="R6">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S6"/>
+      <c s="13" t="inlineStr" r="P6">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Q6">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="R6">
+        <v>127.6</v>
+      </c>
+      <c s="15" r="S6">
+        <v>220.6</v>
+      </c>
+      <c s="2" t="str" r="T6"/>
+      <c s="15" r="U6">
+        <v>244.2</v>
+      </c>
+      <c s="15" r="V6">
+        <v>183</v>
+      </c>
+      <c s="15" r="W6">
+        <v>433.8</v>
+      </c>
+      <c s="15" r="X6">
+        <v>176.7</v>
+      </c>
+      <c s="15" r="Y6">
+        <v>271.9</v>
+      </c>
+      <c s="15" r="Z6">
+        <v>198.4</v>
+      </c>
+      <c s="15" r="AA6">
+        <v>336.3</v>
+      </c>
+      <c s="15" r="AB6">
+        <v>132.7</v>
+      </c>
+      <c s="15" r="AC6">
+        <v>354.8</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD6">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AE6">
+        <v>392.8</v>
+      </c>
+      <c s="16" r="AF6">
+        <v>50</v>
+      </c>
+      <c s="15" r="AG6">
+        <v>242</v>
+      </c>
+      <c s="15" r="AH6">
+        <v>173.8</v>
+      </c>
+      <c s="16" r="AI6">
+        <v>64</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ6">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK6">
+        <v>2869.2</v>
+      </c>
+      <c s="17" r="AL6">
+        <v>889.9</v>
+      </c>
+      <c s="17" r="AM6">
+        <v>3759.1</v>
+      </c>
+      <c s="18" r="AN6">
+        <v>17</v>
+      </c>
+      <c s="18" r="AO6">
+        <v>11</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP6">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="7" ht="18.5" customHeight="1">
       <c s="2" t="str" r="A7"/>
-      <c s="16" t="inlineStr" r="B7">
+      <c s="19" t="inlineStr" r="B7">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C7">
+      <c s="19" t="inlineStr" r="C7">
         <is>
           <t xml:space="preserve">FVN737~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D7">
+      <c s="19" t="inlineStr" r="D7">
         <is>
           <t xml:space="preserve">FVN737</t>
         </is>
       </c>
       <c s="2" t="str" r="E7"/>
-      <c s="17" r="F7">
+      <c s="15" r="F7">
         <v>283.3</v>
       </c>
-      <c s="17" r="G7">
+      <c s="15" r="G7">
         <v>291</v>
       </c>
-      <c s="18" r="H7">
+      <c s="16" r="H7">
         <v>51.3</v>
       </c>
-      <c s="19" r="I7">
+      <c s="14" r="I7">
         <v>0</v>
       </c>
-      <c s="13" t="inlineStr" r="J7">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K7">
-        <v>574.3</v>
-      </c>
-      <c s="20" r="L7">
-        <v>51.3</v>
+      <c s="14" r="J7">
+        <v>0</v>
+      </c>
+      <c s="15" r="K7">
+        <v>257.9</v>
+      </c>
+      <c s="16" r="L7">
+        <v>31.4</v>
       </c>
       <c s="2" t="str" r="M7"/>
       <c s="2" t="str" r="N7"/>
-      <c s="20" r="O7">
-        <v>625.6</v>
-      </c>
-      <c s="21" r="P7">
-        <v>3</v>
-      </c>
-      <c s="21" r="Q7">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R7">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S7"/>
+      <c s="14" r="O7">
+        <v>0</v>
+      </c>
+      <c s="14" r="P7">
+        <v>0.1</v>
+      </c>
+      <c s="15" r="Q7">
+        <v>128.2</v>
+      </c>
+      <c s="20" r="R7">
+        <v>3.5</v>
+      </c>
+      <c s="20" r="S7">
+        <v>9.6</v>
+      </c>
+      <c s="2" t="str" r="T7"/>
+      <c s="13" t="inlineStr" r="U7">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="V7">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="W7">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="X7">
+        <v>280.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="Y7">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="Z7">
+        <v>277.2</v>
+      </c>
+      <c s="16" r="AA7">
+        <v>33.9</v>
+      </c>
+      <c s="16" r="AB7">
+        <v>74.5</v>
+      </c>
+      <c s="16" r="AC7">
+        <v>94.9</v>
+      </c>
+      <c s="16" r="AD7">
+        <v>59.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="AE7">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AF7">
+        <v>48.6</v>
+      </c>
+      <c s="15" r="AG7">
+        <v>272.4</v>
+      </c>
+      <c s="15" r="AH7">
+        <v>185.3</v>
+      </c>
+      <c s="15" r="AI7">
+        <v>234.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ7">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK7">
+        <v>1836.2</v>
+      </c>
+      <c s="21" r="AL7">
+        <v>781.2</v>
+      </c>
+      <c s="21" r="AM7">
+        <v>2617.4</v>
+      </c>
+      <c s="22" r="AN7">
+        <v>19</v>
+      </c>
+      <c s="22" r="AO7">
+        <v>9</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP7">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="8" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A8"/>
@@ -2014,7 +2405,7 @@
       </c>
       <c s="11" t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">FVN739~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Cosmotrans~Nacional~LTC</t>
+          <t xml:space="preserve">FVN739~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
       <c s="11" t="inlineStr" r="D8">
@@ -2023,13 +2414,13 @@
         </is>
       </c>
       <c s="12" t="str" r="E8"/>
-      <c s="17" r="F8">
+      <c s="15" r="F8">
         <v>173.5</v>
       </c>
-      <c s="17" r="G8">
+      <c s="15" r="G8">
         <v>283.1</v>
       </c>
-      <c s="19" r="H8">
+      <c s="14" r="H8">
         <v>0</v>
       </c>
       <c s="13" t="inlineStr" r="I8">
@@ -2042,8 +2433,8 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="14" r="K8">
-        <v>456.6</v>
+      <c s="16" r="K8">
+        <v>39.1</v>
       </c>
       <c s="14" r="L8">
         <v>0</v>
@@ -2051,46 +2442,137 @@
       <c s="2" t="str" r="M8"/>
       <c s="2" t="str" r="N8"/>
       <c s="14" r="O8">
-        <v>456.6</v>
-      </c>
-      <c s="15" r="P8">
-        <v>2</v>
-      </c>
-      <c s="15" r="Q8">
-        <v>3</v>
-      </c>
-      <c s="16" t="inlineStr" r="R8">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S8"/>
+        <v>0</v>
+      </c>
+      <c s="14" r="P8">
+        <v>0</v>
+      </c>
+      <c s="20" r="Q8">
+        <v>0.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="R8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="S8">
+        <v>20.8</v>
+      </c>
+      <c s="2" t="str" r="T8"/>
+      <c s="16" r="U8">
+        <v>71.3</v>
+      </c>
+      <c s="20" r="V8">
+        <v>5.6</v>
+      </c>
+      <c s="16" r="W8">
+        <v>21.8</v>
+      </c>
+      <c s="20" r="X8">
+        <v>1.8</v>
+      </c>
+      <c s="14" r="Y8">
+        <v>0.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="Z8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="20" r="AA8">
+        <v>0.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AB8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AC8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AD8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AE8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AF8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AG8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AI8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AJ8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK8">
+        <v>617.2</v>
+      </c>
+      <c s="17" r="AL8">
+        <v>0.7</v>
+      </c>
+      <c s="17" r="AM8">
+        <v>617.9</v>
+      </c>
+      <c s="18" r="AN8">
+        <v>11</v>
+      </c>
+      <c s="18" r="AO8">
+        <v>17</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP8">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="9" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A9"/>
-      <c s="16" t="inlineStr" r="B9">
+      <c s="19" t="inlineStr" r="B9">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C9">
+      <c s="19" t="inlineStr" r="C9">
         <is>
           <t xml:space="preserve">FVQ470~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D9">
+      <c s="19" t="inlineStr" r="D9">
         <is>
           <t xml:space="preserve">FVQ470</t>
         </is>
       </c>
       <c s="2" t="str" r="E9"/>
-      <c s="17" r="F9">
+      <c s="15" r="F9">
         <v>155.2</v>
       </c>
-      <c s="17" r="G9">
+      <c s="15" r="G9">
         <v>137.8</v>
       </c>
-      <c s="22" r="H9">
+      <c s="20" r="H9">
         <v>0.3</v>
       </c>
       <c s="13" t="inlineStr" r="I9">
@@ -2098,34 +2580,105 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J9">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K9">
-        <v>293</v>
-      </c>
-      <c s="20" r="L9">
-        <v>0.3</v>
+      <c s="16" r="J9">
+        <v>65.9</v>
+      </c>
+      <c s="15" r="K9">
+        <v>196.2</v>
+      </c>
+      <c s="16" r="L9">
+        <v>10.1</v>
       </c>
       <c s="2" t="str" r="M9"/>
       <c s="2" t="str" r="N9"/>
-      <c s="20" r="O9">
-        <v>293.3</v>
-      </c>
-      <c s="21" r="P9">
-        <v>3</v>
-      </c>
-      <c s="21" r="Q9">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R9">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S9"/>
+      <c s="14" r="O9">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="P9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="Q9">
+        <v>17.4</v>
+      </c>
+      <c s="16" r="R9">
+        <v>34.1</v>
+      </c>
+      <c s="15" r="S9">
+        <v>325.5</v>
+      </c>
+      <c s="2" t="str" r="T9"/>
+      <c s="15" r="U9">
+        <v>209.5</v>
+      </c>
+      <c s="16" r="V9">
+        <v>81.2</v>
+      </c>
+      <c s="15" r="W9">
+        <v>218.2</v>
+      </c>
+      <c s="15" r="X9">
+        <v>324.5</v>
+      </c>
+      <c s="20" r="Y9">
+        <v>5.7</v>
+      </c>
+      <c s="16" r="Z9">
+        <v>14.6</v>
+      </c>
+      <c s="14" r="AA9">
+        <v>0</v>
+      </c>
+      <c s="15" r="AB9">
+        <v>233.6</v>
+      </c>
+      <c s="15" r="AC9">
+        <v>382.6</v>
+      </c>
+      <c s="15" r="AD9">
+        <v>135.2</v>
+      </c>
+      <c s="15" r="AE9">
+        <v>201.3</v>
+      </c>
+      <c s="15" r="AF9">
+        <v>219</v>
+      </c>
+      <c s="15" r="AG9">
+        <v>231</v>
+      </c>
+      <c s="20" r="AH9">
+        <v>1</v>
+      </c>
+      <c s="15" r="AI9">
+        <v>232</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK9">
+        <v>2909.8</v>
+      </c>
+      <c s="21" r="AL9">
+        <v>522.1</v>
+      </c>
+      <c s="21" r="AM9">
+        <v>3431.9</v>
+      </c>
+      <c s="22" r="AN9">
+        <v>23</v>
+      </c>
+      <c s="22" r="AO9">
+        <v>5</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="10" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A10"/>
@@ -2145,10 +2698,10 @@
         </is>
       </c>
       <c s="12" t="str" r="E10"/>
-      <c s="22" r="F10">
+      <c s="20" r="F10">
         <v>9.2</v>
       </c>
-      <c s="17" r="G10">
+      <c s="15" r="G10">
         <v>125.4</v>
       </c>
       <c s="13" t="inlineStr" r="H10">
@@ -2167,7 +2720,7 @@
         </is>
       </c>
       <c s="14" r="K10">
-        <v>134.6</v>
+        <v>0</v>
       </c>
       <c s="14" r="L10">
         <v>0</v>
@@ -2175,43 +2728,116 @@
       <c s="2" t="str" r="M10"/>
       <c s="2" t="str" r="N10"/>
       <c s="14" r="O10">
-        <v>134.6</v>
-      </c>
-      <c s="15" r="P10">
-        <v>2</v>
-      </c>
-      <c s="15" r="Q10">
-        <v>3</v>
-      </c>
-      <c s="16" t="inlineStr" r="R10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S10"/>
+        <v>0</v>
+      </c>
+      <c s="14" r="P10">
+        <v>0</v>
+      </c>
+      <c s="14" r="Q10">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="R10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="S10">
+        <v>0</v>
+      </c>
+      <c s="2" t="str" r="T10"/>
+      <c s="14" r="U10">
+        <v>0</v>
+      </c>
+      <c s="15" r="V10">
+        <v>112.9</v>
+      </c>
+      <c s="15" r="W10">
+        <v>402.6</v>
+      </c>
+      <c s="15" r="X10">
+        <v>136.7</v>
+      </c>
+      <c s="20" r="Y10">
+        <v>5.3</v>
+      </c>
+      <c s="16" r="Z10">
+        <v>53.5</v>
+      </c>
+      <c s="16" r="AA10">
+        <v>51.6</v>
+      </c>
+      <c s="16" r="AB10">
+        <v>53.4</v>
+      </c>
+      <c s="16" r="AC10">
+        <v>11.3</v>
+      </c>
+      <c s="16" r="AD10">
+        <v>58.1</v>
+      </c>
+      <c s="16" r="AE10">
+        <v>56.7</v>
+      </c>
+      <c s="16" r="AF10">
+        <v>28.9</v>
+      </c>
+      <c s="16" r="AG10">
+        <v>24.2</v>
+      </c>
+      <c s="16" r="AH10">
+        <v>51.5</v>
+      </c>
+      <c s="16" r="AI10">
+        <v>78.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK10">
+        <v>1147.7</v>
+      </c>
+      <c s="17" r="AL10">
+        <v>111.9</v>
+      </c>
+      <c s="17" r="AM10">
+        <v>1259.6</v>
+      </c>
+      <c s="18" r="AN10">
+        <v>16</v>
+      </c>
+      <c s="18" r="AO10">
+        <v>12</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="11" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A11"/>
-      <c s="16" t="inlineStr" r="B11">
+      <c s="19" t="inlineStr" r="B11">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C11">
+      <c s="19" t="inlineStr" r="C11">
         <is>
           <t xml:space="preserve">FVQ475~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D11">
+      <c s="19" t="inlineStr" r="D11">
         <is>
           <t xml:space="preserve">FVQ475</t>
         </is>
       </c>
       <c s="2" t="str" r="E11"/>
-      <c s="18" r="F11">
+      <c s="16" r="F11">
         <v>20.7</v>
       </c>
-      <c s="19" r="G11">
+      <c s="14" r="G11">
         <v>0</v>
       </c>
       <c s="13" t="inlineStr" r="H11">
@@ -2229,29 +2855,130 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="20" r="K11">
-        <v>20.7</v>
-      </c>
-      <c s="20" r="L11">
-        <v>0</v>
+      <c s="13" t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="L11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="2" t="str" r="M11"/>
       <c s="2" t="str" r="N11"/>
-      <c s="20" r="O11">
-        <v>20.7</v>
-      </c>
-      <c s="21" r="P11">
-        <v>1</v>
-      </c>
-      <c s="21" r="Q11">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R11">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S11"/>
+      <c s="16" r="O11">
+        <v>19.5</v>
+      </c>
+      <c s="14" r="P11">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="Q11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="S11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="2" t="str" r="T11"/>
+      <c s="13" t="inlineStr" r="U11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="V11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="W11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="X11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Y11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Z11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="AA11">
+        <v>0</v>
+      </c>
+      <c s="20" r="AB11">
+        <v>1.8</v>
+      </c>
+      <c s="16" r="AC11">
+        <v>40.8</v>
+      </c>
+      <c s="20" r="AD11">
+        <v>0.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="AE11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AF11">
+        <v>20.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AI11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AJ11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK11">
+        <v>83.3</v>
+      </c>
+      <c s="21" r="AL11">
+        <v>20.4</v>
+      </c>
+      <c s="21" r="AM11">
+        <v>103.7</v>
+      </c>
+      <c s="22" r="AN11">
+        <v>6</v>
+      </c>
+      <c s="22" r="AO11">
+        <v>22</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP11">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="12" ht="18.5" customHeight="1">
       <c s="2" t="str" r="A12"/>
@@ -2271,69 +2998,138 @@
         </is>
       </c>
       <c s="12" t="str" r="E12"/>
-      <c s="22" r="F12">
+      <c s="20" r="F12">
         <v>0.9</v>
       </c>
-      <c s="17" r="G12">
+      <c s="15" r="G12">
         <v>104.8</v>
       </c>
-      <c s="17" r="H12">
+      <c s="15" r="H12">
         <v>122.8</v>
       </c>
-      <c s="17" r="I12">
+      <c s="15" r="I12">
         <v>285.9</v>
       </c>
-      <c s="13" t="inlineStr" r="J12">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K12">
-        <v>105.7</v>
-      </c>
-      <c s="14" r="L12">
-        <v>408.7</v>
+      <c s="15" r="J12">
+        <v>299.2</v>
+      </c>
+      <c s="15" r="K12">
+        <v>283.3</v>
+      </c>
+      <c s="16" r="L12">
+        <v>83.4</v>
       </c>
       <c s="2" t="str" r="M12"/>
       <c s="2" t="str" r="N12"/>
-      <c s="14" r="O12">
-        <v>514.4</v>
-      </c>
-      <c s="15" r="P12">
-        <v>4</v>
-      </c>
-      <c s="15" r="Q12">
+      <c s="16" r="O12">
+        <v>26.9</v>
+      </c>
+      <c s="20" r="P12">
+        <v>7.2</v>
+      </c>
+      <c s="20" r="Q12">
+        <v>7.1</v>
+      </c>
+      <c s="15" r="R12">
+        <v>170.5</v>
+      </c>
+      <c s="16" r="S12">
+        <v>10.7</v>
+      </c>
+      <c s="2" t="str" r="T12"/>
+      <c s="20" r="U12">
+        <v>9.1</v>
+      </c>
+      <c s="16" r="V12">
+        <v>24.2</v>
+      </c>
+      <c s="20" r="W12">
+        <v>7.2</v>
+      </c>
+      <c s="16" r="X12">
+        <v>10.2</v>
+      </c>
+      <c s="16" r="Y12">
+        <v>14.4</v>
+      </c>
+      <c s="16" r="Z12">
+        <v>97.7</v>
+      </c>
+      <c s="15" r="AA12">
+        <v>410.7</v>
+      </c>
+      <c s="15" r="AB12">
+        <v>169.8</v>
+      </c>
+      <c s="15" r="AC12">
+        <v>313.6</v>
+      </c>
+      <c s="15" r="AD12">
+        <v>221.3</v>
+      </c>
+      <c s="15" r="AE12">
+        <v>270.8</v>
+      </c>
+      <c s="20" r="AF12">
+        <v>6.1</v>
+      </c>
+      <c s="16" r="AG12">
+        <v>18.9</v>
+      </c>
+      <c s="15" r="AH12">
+        <v>171.7</v>
+      </c>
+      <c s="15" r="AI12">
+        <v>253.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ12">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK12">
+        <v>2678.2</v>
+      </c>
+      <c s="17" r="AL12">
+        <v>723.4</v>
+      </c>
+      <c s="17" r="AM12">
+        <v>3401.6</v>
+      </c>
+      <c s="18" r="AN12">
+        <v>27</v>
+      </c>
+      <c s="18" r="AO12">
         <v>1</v>
       </c>
-      <c s="16" t="inlineStr" r="R12">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S12"/>
+      <c s="19" t="inlineStr" r="AP12">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="13" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A13"/>
-      <c s="16" t="inlineStr" r="B13">
+      <c s="19" t="inlineStr" r="B13">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C13">
+      <c s="19" t="inlineStr" r="C13">
         <is>
           <t xml:space="preserve">FVQ491~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D13">
+      <c s="19" t="inlineStr" r="D13">
         <is>
           <t xml:space="preserve">FVQ491</t>
         </is>
       </c>
       <c s="2" t="str" r="E13"/>
-      <c s="19" r="F13">
+      <c s="14" r="F13">
         <v>0.1</v>
       </c>
-      <c s="19" r="G13">
+      <c s="14" r="G13">
         <v>0.1</v>
       </c>
       <c s="13" t="inlineStr" r="H13">
@@ -2351,29 +3147,104 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="20" r="K13">
-        <v>0.2</v>
-      </c>
-      <c s="20" r="L13">
+      <c s="14" r="K13">
         <v>0</v>
+      </c>
+      <c s="15" r="L13">
+        <v>353</v>
       </c>
       <c s="2" t="str" r="M13"/>
       <c s="2" t="str" r="N13"/>
-      <c s="20" r="O13">
-        <v>0.2</v>
-      </c>
-      <c s="21" r="P13">
-        <v>2</v>
-      </c>
-      <c s="21" r="Q13">
-        <v>3</v>
-      </c>
-      <c s="16" t="inlineStr" r="R13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S13"/>
+      <c s="15" r="O13">
+        <v>138</v>
+      </c>
+      <c s="15" r="P13">
+        <v>127.1</v>
+      </c>
+      <c s="15" r="Q13">
+        <v>169.8</v>
+      </c>
+      <c s="15" r="R13">
+        <v>261.6</v>
+      </c>
+      <c s="15" r="S13">
+        <v>331.7</v>
+      </c>
+      <c s="2" t="str" r="T13"/>
+      <c s="16" r="U13">
+        <v>71</v>
+      </c>
+      <c s="15" r="V13">
+        <v>108.3</v>
+      </c>
+      <c s="15" r="W13">
+        <v>336.2</v>
+      </c>
+      <c s="14" r="X13">
+        <v>0</v>
+      </c>
+      <c s="14" r="Y13">
+        <v>0</v>
+      </c>
+      <c s="16" r="Z13">
+        <v>12.6</v>
+      </c>
+      <c s="15" r="AA13">
+        <v>156.4</v>
+      </c>
+      <c s="16" r="AB13">
+        <v>19.5</v>
+      </c>
+      <c s="15" r="AC13">
+        <v>346.8</v>
+      </c>
+      <c s="15" r="AD13">
+        <v>130.4</v>
+      </c>
+      <c s="15" r="AE13">
+        <v>149.1</v>
+      </c>
+      <c s="15" r="AF13">
+        <v>143.7</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AH13">
+        <v>14.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AI13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AJ13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK13">
+        <v>2282.1</v>
+      </c>
+      <c s="21" r="AL13">
+        <v>587.7</v>
+      </c>
+      <c s="21" r="AM13">
+        <v>2869.8</v>
+      </c>
+      <c s="22" r="AN13">
+        <v>19</v>
+      </c>
+      <c s="22" r="AO13">
+        <v>9</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="14" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A14"/>
@@ -2398,102 +3269,248 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="17" r="G14">
+      <c s="15" r="G14">
         <v>122.6</v>
       </c>
-      <c s="18" r="H14">
+      <c s="16" r="H14">
         <v>94.8</v>
       </c>
-      <c s="22" r="I14">
+      <c s="20" r="I14">
         <v>4.9</v>
       </c>
-      <c s="13" t="inlineStr" r="J14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K14">
-        <v>122.6</v>
-      </c>
-      <c s="14" r="L14">
-        <v>99.7</v>
+      <c s="14" r="J14">
+        <v>0</v>
+      </c>
+      <c s="15" r="K14">
+        <v>104.6</v>
+      </c>
+      <c s="16" r="L14">
+        <v>46.7</v>
       </c>
       <c s="2" t="str" r="M14"/>
       <c s="2" t="str" r="N14"/>
-      <c s="14" r="O14">
-        <v>222.3</v>
-      </c>
-      <c s="15" r="P14">
-        <v>3</v>
-      </c>
-      <c s="15" r="Q14">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S14"/>
+      <c s="16" r="O14">
+        <v>65.5</v>
+      </c>
+      <c s="16" r="P14">
+        <v>85.7</v>
+      </c>
+      <c s="16" r="Q14">
+        <v>37.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="R14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="S14">
+        <v>68.8</v>
+      </c>
+      <c s="2" t="str" r="T14"/>
+      <c s="16" r="U14">
+        <v>59.6</v>
+      </c>
+      <c s="15" r="V14">
+        <v>146.6</v>
+      </c>
+      <c s="14" r="W14">
+        <v>0</v>
+      </c>
+      <c s="16" r="X14">
+        <v>64.4</v>
+      </c>
+      <c s="16" r="Y14">
+        <v>98.3</v>
+      </c>
+      <c s="16" r="Z14">
+        <v>21.4</v>
+      </c>
+      <c s="16" r="AA14">
+        <v>70.6</v>
+      </c>
+      <c s="14" r="AB14">
+        <v>0.1</v>
+      </c>
+      <c s="16" r="AC14">
+        <v>19.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AE14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AF14">
+        <v>118.1</v>
+      </c>
+      <c s="15" r="AG14">
+        <v>237.3</v>
+      </c>
+      <c s="15" r="AH14">
+        <v>232.3</v>
+      </c>
+      <c s="16" r="AI14">
+        <v>96</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK14">
+        <v>1183.1</v>
+      </c>
+      <c s="17" r="AL14">
+        <v>612.4</v>
+      </c>
+      <c s="17" r="AM14">
+        <v>1795.5</v>
+      </c>
+      <c s="18" r="AN14">
+        <v>21</v>
+      </c>
+      <c s="18" r="AO14">
+        <v>7</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="15" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A15"/>
-      <c s="16" t="inlineStr" r="B15">
+      <c s="19" t="inlineStr" r="B15">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C15">
+      <c s="19" t="inlineStr" r="C15">
         <is>
           <t xml:space="preserve">FVQ495~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D15">
+      <c s="19" t="inlineStr" r="D15">
         <is>
           <t xml:space="preserve">FVQ495</t>
         </is>
       </c>
       <c s="2" t="str" r="E15"/>
-      <c s="22" r="F15">
+      <c s="20" r="F15">
         <v>6.6</v>
       </c>
-      <c s="17" r="G15">
+      <c s="15" r="G15">
         <v>328.6</v>
       </c>
-      <c s="17" r="H15">
+      <c s="15" r="H15">
         <v>176.5</v>
       </c>
-      <c s="17" r="I15">
-        <v>331</v>
-      </c>
-      <c s="13" t="inlineStr" r="J15">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K15">
-        <v>335.2</v>
-      </c>
-      <c s="20" r="L15">
-        <v>507.5</v>
+      <c s="15" r="I15">
+        <v>333.2</v>
+      </c>
+      <c s="15" r="J15">
+        <v>327.5</v>
+      </c>
+      <c s="15" r="K15">
+        <v>180.6</v>
+      </c>
+      <c s="15" r="L15">
+        <v>312.5</v>
       </c>
       <c s="2" t="str" r="M15"/>
       <c s="2" t="str" r="N15"/>
-      <c s="20" r="O15">
-        <v>842.7</v>
-      </c>
-      <c s="21" r="P15">
-        <v>4</v>
-      </c>
-      <c s="21" r="Q15">
-        <v>1</v>
-      </c>
-      <c s="16" t="inlineStr" r="R15">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S15"/>
+      <c s="15" r="O15">
+        <v>193.3</v>
+      </c>
+      <c s="15" r="P15">
+        <v>208.8</v>
+      </c>
+      <c s="15" r="Q15">
+        <v>207.2</v>
+      </c>
+      <c s="16" r="R15">
+        <v>28.4</v>
+      </c>
+      <c s="15" r="S15">
+        <v>165.8</v>
+      </c>
+      <c s="2" t="str" r="T15"/>
+      <c s="20" r="U15">
+        <v>10</v>
+      </c>
+      <c s="15" r="V15">
+        <v>165.5</v>
+      </c>
+      <c s="20" r="W15">
+        <v>9.4</v>
+      </c>
+      <c s="14" r="X15">
+        <v>0</v>
+      </c>
+      <c s="20" r="Y15">
+        <v>8.6</v>
+      </c>
+      <c s="15" r="Z15">
+        <v>274.8</v>
+      </c>
+      <c s="15" r="AA15">
+        <v>270.7</v>
+      </c>
+      <c s="15" r="AB15">
+        <v>180</v>
+      </c>
+      <c s="15" r="AC15">
+        <v>229.7</v>
+      </c>
+      <c s="20" r="AD15">
+        <v>6.5</v>
+      </c>
+      <c s="15" r="AE15">
+        <v>233.7</v>
+      </c>
+      <c s="15" r="AF15">
+        <v>219.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG15">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AH15">
+        <v>156.2</v>
+      </c>
+      <c s="16" r="AI15">
+        <v>33.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ15">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK15">
+        <v>3018.6</v>
+      </c>
+      <c s="21" r="AL15">
+        <v>1248</v>
+      </c>
+      <c s="21" r="AM15">
+        <v>4266.6</v>
+      </c>
+      <c s="22" r="AN15">
+        <v>25</v>
+      </c>
+      <c s="22" r="AO15">
+        <v>3</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP15">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="16" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A16"/>
@@ -2513,13 +3530,13 @@
         </is>
       </c>
       <c s="12" t="str" r="E16"/>
-      <c s="17" r="F16">
+      <c s="15" r="F16">
         <v>305.8</v>
       </c>
-      <c s="17" r="G16">
+      <c s="15" r="G16">
         <v>117.5</v>
       </c>
-      <c s="17" r="H16">
+      <c s="15" r="H16">
         <v>268.6</v>
       </c>
       <c s="13" t="inlineStr" r="I16">
@@ -2527,93 +3544,261 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J16">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K16">
-        <v>423.3</v>
-      </c>
-      <c s="14" r="L16">
-        <v>268.6</v>
+      <c s="14" r="J16">
+        <v>0</v>
+      </c>
+      <c s="16" r="K16">
+        <v>15.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="L16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="2" t="str" r="M16"/>
       <c s="2" t="str" r="N16"/>
-      <c s="14" r="O16">
-        <v>691.9</v>
-      </c>
-      <c s="15" r="P16">
-        <v>3</v>
+      <c s="20" r="O16">
+        <v>3.1</v>
+      </c>
+      <c s="14" r="P16">
+        <v>0</v>
       </c>
       <c s="15" r="Q16">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R16">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S16"/>
+        <v>464.7</v>
+      </c>
+      <c s="16" r="R16">
+        <v>33.4</v>
+      </c>
+      <c s="14" r="S16">
+        <v>0</v>
+      </c>
+      <c s="2" t="str" r="T16"/>
+      <c s="15" r="U16">
+        <v>124.4</v>
+      </c>
+      <c s="15" r="V16">
+        <v>124.4</v>
+      </c>
+      <c s="15" r="W16">
+        <v>423.4</v>
+      </c>
+      <c s="15" r="X16">
+        <v>209.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="Y16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="Z16">
+        <v>53.7</v>
+      </c>
+      <c s="15" r="AA16">
+        <v>106.8</v>
+      </c>
+      <c s="16" r="AB16">
+        <v>13</v>
+      </c>
+      <c s="16" r="AC16">
+        <v>75.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AE16">
+        <v>147.2</v>
+      </c>
+      <c s="14" r="AF16">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AI16">
+        <v>52.9</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK16">
+        <v>1718.6</v>
+      </c>
+      <c s="17" r="AL16">
+        <v>820.4</v>
+      </c>
+      <c s="17" r="AM16">
+        <v>2539</v>
+      </c>
+      <c s="18" r="AN16">
+        <v>17</v>
+      </c>
+      <c s="18" r="AO16">
+        <v>11</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="17" ht="18.5" customHeight="1">
       <c s="2" t="str" r="A17"/>
-      <c s="16" t="inlineStr" r="B17">
+      <c s="19" t="inlineStr" r="B17">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C17">
+      <c s="19" t="inlineStr" r="C17">
         <is>
           <t xml:space="preserve">FVR345~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D17">
+      <c s="19" t="inlineStr" r="D17">
         <is>
           <t xml:space="preserve">FVR345</t>
         </is>
       </c>
       <c s="2" t="str" r="E17"/>
-      <c s="17" r="F17">
+      <c s="15" r="F17">
         <v>136.8</v>
       </c>
-      <c s="19" r="G17">
+      <c s="14" r="G17">
         <v>0</v>
       </c>
-      <c s="22" r="H17">
+      <c s="20" r="H17">
         <v>3.4</v>
       </c>
-      <c s="17" r="I17">
+      <c s="15" r="I17">
         <v>468.4</v>
       </c>
-      <c s="13" t="inlineStr" r="J17">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K17">
-        <v>136.8</v>
-      </c>
-      <c s="20" r="L17">
-        <v>471.8</v>
+      <c s="15" r="J17">
+        <v>309.2</v>
+      </c>
+      <c s="15" r="K17">
+        <v>161.2</v>
+      </c>
+      <c s="16" r="L17">
+        <v>49.4</v>
       </c>
       <c s="2" t="str" r="M17"/>
       <c s="2" t="str" r="N17"/>
-      <c s="20" r="O17">
-        <v>608.6</v>
-      </c>
-      <c s="21" r="P17">
-        <v>3</v>
-      </c>
-      <c s="21" r="Q17">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R17">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S17"/>
+      <c s="15" r="O17">
+        <v>352.5</v>
+      </c>
+      <c s="15" r="P17">
+        <v>408</v>
+      </c>
+      <c s="15" r="Q17">
+        <v>167.1</v>
+      </c>
+      <c s="15" r="R17">
+        <v>166.9</v>
+      </c>
+      <c s="16" r="S17">
+        <v>92.3</v>
+      </c>
+      <c s="2" t="str" r="T17"/>
+      <c s="20" r="U17">
+        <v>8.3</v>
+      </c>
+      <c s="16" r="V17">
+        <v>75.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="W17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="X17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Y17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Z17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AA17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="AB17">
+        <v>0</v>
+      </c>
+      <c s="14" r="AC17">
+        <v>0</v>
+      </c>
+      <c s="14" r="AD17">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="AE17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AF17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AG17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AI17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AJ17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK17">
+        <v>1592.8</v>
+      </c>
+      <c s="21" r="AL17">
+        <v>805.8</v>
+      </c>
+      <c s="21" r="AM17">
+        <v>2398.6</v>
+      </c>
+      <c s="22" r="AN17">
+        <v>13</v>
+      </c>
+      <c s="22" r="AO17">
+        <v>15</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="18" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A18"/>
@@ -2638,7 +3823,7 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="22" r="G18">
+      <c s="20" r="G18">
         <v>7.2</v>
       </c>
       <c s="13" t="inlineStr" r="H18">
@@ -2651,54 +3836,135 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J18">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="14" r="J18">
+        <v>0</v>
       </c>
       <c s="14" r="K18">
-        <v>7.2</v>
-      </c>
-      <c s="14" r="L18">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="L18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="2" t="str" r="M18"/>
       <c s="2" t="str" r="N18"/>
-      <c s="14" r="O18">
-        <v>7.2</v>
-      </c>
-      <c s="15" r="P18">
-        <v>1</v>
-      </c>
-      <c s="15" r="Q18">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R18">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S18"/>
+      <c s="13" t="inlineStr" r="O18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="P18">
+        <v>0</v>
+      </c>
+      <c s="20" r="Q18">
+        <v>0.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="R18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="S18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="2" t="str" r="T18"/>
+      <c s="16" r="U18">
+        <v>15.1</v>
+      </c>
+      <c s="15" r="V18">
+        <v>292.3</v>
+      </c>
+      <c s="16" r="W18">
+        <v>30</v>
+      </c>
+      <c s="15" r="X18">
+        <v>141.9</v>
+      </c>
+      <c s="15" r="Y18">
+        <v>284</v>
+      </c>
+      <c s="16" r="Z18">
+        <v>55.4</v>
+      </c>
+      <c s="15" r="AA18">
+        <v>225.5</v>
+      </c>
+      <c s="14" r="AB18">
+        <v>0</v>
+      </c>
+      <c s="15" r="AC18">
+        <v>217.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AE18">
+        <v>37.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="AF18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AG18">
+        <v>36.8</v>
+      </c>
+      <c s="15" r="AH18">
+        <v>396.1</v>
+      </c>
+      <c s="15" r="AI18">
+        <v>123.9</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK18">
+        <v>1487</v>
+      </c>
+      <c s="17" r="AL18">
+        <v>376.5</v>
+      </c>
+      <c s="17" r="AM18">
+        <v>1863.5</v>
+      </c>
+      <c s="18" r="AN18">
+        <v>15</v>
+      </c>
+      <c s="18" r="AO18">
+        <v>13</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="19" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A19"/>
-      <c s="16" t="inlineStr" r="B19">
+      <c s="19" t="inlineStr" r="B19">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C19">
+      <c s="19" t="inlineStr" r="C19">
         <is>
           <t xml:space="preserve">FVR348~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D19">
+      <c s="19" t="inlineStr" r="D19">
         <is>
           <t xml:space="preserve">FVR348</t>
         </is>
       </c>
       <c s="2" t="str" r="E19"/>
-      <c s="19" r="F19">
+      <c s="14" r="F19">
         <v>0.1</v>
       </c>
       <c s="13" t="inlineStr" r="G19">
@@ -2721,29 +3987,116 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="20" r="K19">
-        <v>0.1</v>
-      </c>
-      <c s="20" r="L19">
-        <v>0</v>
+      <c s="16" r="K19">
+        <v>10.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="L19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="2" t="str" r="M19"/>
       <c s="2" t="str" r="N19"/>
-      <c s="20" r="O19">
-        <v>0.1</v>
-      </c>
-      <c s="21" r="P19">
-        <v>1</v>
-      </c>
-      <c s="21" r="Q19">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R19">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S19"/>
+      <c s="15" r="O19">
+        <v>169.9</v>
+      </c>
+      <c s="13" t="inlineStr" r="P19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Q19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="S19">
+        <v>385.2</v>
+      </c>
+      <c s="2" t="str" r="T19"/>
+      <c s="15" r="U19">
+        <v>124.7</v>
+      </c>
+      <c s="15" r="V19">
+        <v>156.8</v>
+      </c>
+      <c s="13" t="inlineStr" r="W19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="X19">
+        <v>317.3</v>
+      </c>
+      <c s="15" r="Y19">
+        <v>252.5</v>
+      </c>
+      <c s="15" r="Z19">
+        <v>252.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AA19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AB19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="20" r="AC19">
+        <v>4.6</v>
+      </c>
+      <c s="15" r="AD19">
+        <v>101.3</v>
+      </c>
+      <c s="15" r="AE19">
+        <v>341.4</v>
+      </c>
+      <c s="16" r="AF19">
+        <v>24.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AH19">
+        <v>14.3</v>
+      </c>
+      <c s="15" r="AI19">
+        <v>198.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK19">
+        <v>1824.3</v>
+      </c>
+      <c s="21" r="AL19">
+        <v>529.3</v>
+      </c>
+      <c s="21" r="AM19">
+        <v>2353.6</v>
+      </c>
+      <c s="22" r="AN19">
+        <v>15</v>
+      </c>
+      <c s="22" r="AO19">
+        <v>13</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="20" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A20"/>
@@ -2768,59 +4121,138 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="17" r="G20">
+      <c s="15" r="G20">
         <v>222.6</v>
       </c>
-      <c s="17" r="H20">
-        <v>189.6</v>
+      <c s="15" r="H20">
+        <v>342.6</v>
       </c>
       <c s="13" t="inlineStr" r="I20">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J20">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K20">
-        <v>222.6</v>
-      </c>
-      <c s="14" r="L20">
-        <v>189.6</v>
+      <c s="20" r="J20">
+        <v>2.9</v>
+      </c>
+      <c s="15" r="K20">
+        <v>323.2</v>
+      </c>
+      <c s="15" r="L20">
+        <v>123.8</v>
       </c>
       <c s="2" t="str" r="M20"/>
       <c s="2" t="str" r="N20"/>
-      <c s="14" r="O20">
-        <v>412.2</v>
+      <c s="15" r="O20">
+        <v>276.2</v>
       </c>
       <c s="15" r="P20">
-        <v>2</v>
-      </c>
-      <c s="15" r="Q20">
-        <v>3</v>
-      </c>
-      <c s="16" t="inlineStr" r="R20">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S20"/>
+        <v>256</v>
+      </c>
+      <c s="13" t="inlineStr" r="Q20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="R20">
+        <v>137.6</v>
+      </c>
+      <c s="15" r="S20">
+        <v>272.5</v>
+      </c>
+      <c s="2" t="str" r="T20"/>
+      <c s="16" r="U20">
+        <v>26.1</v>
+      </c>
+      <c s="16" r="V20">
+        <v>22</v>
+      </c>
+      <c s="16" r="W20">
+        <v>12.8</v>
+      </c>
+      <c s="15" r="X20">
+        <v>290.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="Y20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Z20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AA20">
+        <v>57.5</v>
+      </c>
+      <c s="16" r="AB20">
+        <v>94.5</v>
+      </c>
+      <c s="16" r="AC20">
+        <v>69</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AE20">
+        <v>275.8</v>
+      </c>
+      <c s="13" t="inlineStr" r="AF20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AG20">
+        <v>30.2</v>
+      </c>
+      <c s="16" r="AH20">
+        <v>42</v>
+      </c>
+      <c s="15" r="AI20">
+        <v>122.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK20">
+        <v>2489.6</v>
+      </c>
+      <c s="17" r="AL20">
+        <v>510.4</v>
+      </c>
+      <c s="17" r="AM20">
+        <v>3000</v>
+      </c>
+      <c s="18" r="AN20">
+        <v>20</v>
+      </c>
+      <c s="18" r="AO20">
+        <v>8</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="21" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A21"/>
-      <c s="16" t="inlineStr" r="B21">
+      <c s="19" t="inlineStr" r="B21">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C21">
+      <c s="19" t="inlineStr" r="C21">
         <is>
           <t xml:space="preserve">FVS295~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D21">
+      <c s="19" t="inlineStr" r="D21">
         <is>
           <t xml:space="preserve">FVS295</t>
         </is>
@@ -2831,10 +4263,10 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="19" r="G21">
+      <c s="14" r="G21">
         <v>0.1</v>
       </c>
-      <c s="19" r="H21">
+      <c s="14" r="H21">
         <v>0</v>
       </c>
       <c s="13" t="inlineStr" r="I21">
@@ -2847,29 +4279,112 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="20" r="K21">
-        <v>0.1</v>
-      </c>
-      <c s="20" r="L21">
-        <v>0</v>
+      <c s="13" t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="L21">
+        <v>32</v>
       </c>
       <c s="2" t="str" r="M21"/>
       <c s="2" t="str" r="N21"/>
-      <c s="20" r="O21">
-        <v>0.1</v>
-      </c>
-      <c s="21" r="P21">
-        <v>1</v>
-      </c>
-      <c s="21" r="Q21">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R21">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S21"/>
+      <c s="16" r="O21">
+        <v>22.4</v>
+      </c>
+      <c s="15" r="P21">
+        <v>104.7</v>
+      </c>
+      <c s="13" t="inlineStr" r="Q21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="S21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="2" t="str" r="T21"/>
+      <c s="15" r="U21">
+        <v>121.4</v>
+      </c>
+      <c s="15" r="V21">
+        <v>306.6</v>
+      </c>
+      <c s="20" r="W21">
+        <v>4.7</v>
+      </c>
+      <c s="13" t="inlineStr" r="X21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Y21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="Z21">
+        <v>363.4</v>
+      </c>
+      <c s="15" r="AA21">
+        <v>113.1</v>
+      </c>
+      <c s="15" r="AB21">
+        <v>139.2</v>
+      </c>
+      <c s="15" r="AC21">
+        <v>254</v>
+      </c>
+      <c s="15" r="AD21">
+        <v>271.9</v>
+      </c>
+      <c s="15" r="AE21">
+        <v>225.4</v>
+      </c>
+      <c s="15" r="AF21">
+        <v>306.2</v>
+      </c>
+      <c s="15" r="AG21">
+        <v>188</v>
+      </c>
+      <c s="15" r="AH21">
+        <v>183.4</v>
+      </c>
+      <c s="15" r="AI21">
+        <v>170.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK21">
+        <v>1949.3</v>
+      </c>
+      <c s="21" r="AL21">
+        <v>857.6</v>
+      </c>
+      <c s="21" r="AM21">
+        <v>2806.9</v>
+      </c>
+      <c s="22" r="AN21">
+        <v>17</v>
+      </c>
+      <c s="22" r="AO21">
+        <v>11</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="22" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A22"/>
@@ -2889,10 +4404,10 @@
         </is>
       </c>
       <c s="12" t="str" r="E22"/>
-      <c s="18" r="F22">
+      <c s="16" r="F22">
         <v>79.7</v>
       </c>
-      <c s="18" r="G22">
+      <c s="16" r="G22">
         <v>59.4</v>
       </c>
       <c s="13" t="inlineStr" r="H22">
@@ -2900,51 +4415,126 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="17" r="I22">
+      <c s="15" r="I22">
         <v>156.7</v>
       </c>
-      <c s="13" t="inlineStr" r="J22">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K22">
-        <v>139.1</v>
-      </c>
-      <c s="14" r="L22">
-        <v>156.7</v>
+      <c s="15" r="J22">
+        <v>270.2</v>
+      </c>
+      <c s="15" r="K22">
+        <v>416.4</v>
+      </c>
+      <c s="15" r="L22">
+        <v>289.9</v>
       </c>
       <c s="2" t="str" r="M22"/>
       <c s="2" t="str" r="N22"/>
-      <c s="14" r="O22">
-        <v>295.8</v>
+      <c s="16" r="O22">
+        <v>19.9</v>
       </c>
       <c s="15" r="P22">
-        <v>3</v>
-      </c>
-      <c s="15" r="Q22">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R22">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S22"/>
+        <v>125.7</v>
+      </c>
+      <c s="20" r="Q22">
+        <v>7.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="R22">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="20" r="S22">
+        <v>4.7</v>
+      </c>
+      <c s="2" t="str" r="T22"/>
+      <c s="20" r="U22">
+        <v>2.3</v>
+      </c>
+      <c s="16" r="V22">
+        <v>10.8</v>
+      </c>
+      <c s="14" r="W22">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="X22">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="Y22">
+        <v>453.1</v>
+      </c>
+      <c s="15" r="Z22">
+        <v>211.3</v>
+      </c>
+      <c s="15" r="AA22">
+        <v>136.6</v>
+      </c>
+      <c s="15" r="AB22">
+        <v>218.7</v>
+      </c>
+      <c s="15" r="AC22">
+        <v>249.5</v>
+      </c>
+      <c s="15" r="AD22">
+        <v>252.6</v>
+      </c>
+      <c s="20" r="AE22">
+        <v>0.9</v>
+      </c>
+      <c s="15" r="AF22">
+        <v>290.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG22">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AH22">
+        <v>271.7</v>
+      </c>
+      <c s="16" r="AI22">
+        <v>23.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ22">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK22">
+        <v>2432.3</v>
+      </c>
+      <c s="17" r="AL22">
+        <v>1118.6</v>
+      </c>
+      <c s="17" r="AM22">
+        <v>3550.9</v>
+      </c>
+      <c s="18" r="AN22">
+        <v>22</v>
+      </c>
+      <c s="18" r="AO22">
+        <v>6</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP22">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="23" ht="18.5" customHeight="1">
       <c s="2" t="str" r="A23"/>
-      <c s="16" t="inlineStr" r="B23">
+      <c s="19" t="inlineStr" r="B23">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C23">
+      <c s="19" t="inlineStr" r="C23">
         <is>
           <t xml:space="preserve">FVS298~Colombia-Cota~MSP~LV~Chevrolet-D MAX~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D23">
+      <c s="19" t="inlineStr" r="D23">
         <is>
           <t xml:space="preserve">FVS298</t>
         </is>
@@ -2975,29 +4565,120 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="20" r="K23">
-        <v>0</v>
-      </c>
-      <c s="20" r="L23">
-        <v>0</v>
+      <c s="16" r="K23">
+        <v>18.8</v>
+      </c>
+      <c s="13" t="inlineStr" r="L23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="2" t="str" r="M23"/>
       <c s="2" t="str" r="N23"/>
-      <c s="20" r="O23">
+      <c s="13" t="inlineStr" r="O23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="P23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Q23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="S23">
+        <v>99.9</v>
+      </c>
+      <c s="2" t="str" r="T23"/>
+      <c s="15" r="U23">
+        <v>404.8</v>
+      </c>
+      <c s="15" r="V23">
+        <v>402.8</v>
+      </c>
+      <c s="15" r="W23">
+        <v>212.1</v>
+      </c>
+      <c s="15" r="X23">
+        <v>254.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="Y23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="Z23">
+        <v>127.2</v>
+      </c>
+      <c s="16" r="AA23">
+        <v>37.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="AB23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="AC23">
         <v>0</v>
       </c>
-      <c s="21" r="P23">
-        <v>0</v>
-      </c>
-      <c s="21" r="Q23">
-        <v>5</v>
-      </c>
-      <c s="16" t="inlineStr" r="R23">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S23"/>
+      <c s="13" t="inlineStr" r="AD23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AE23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AF23">
+        <v>23.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AH23">
+        <v>211.2</v>
+      </c>
+      <c s="15" r="AI23">
+        <v>104.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK23">
+        <v>1745.8</v>
+      </c>
+      <c s="21" r="AL23">
+        <v>150.6</v>
+      </c>
+      <c s="21" r="AM23">
+        <v>1896.4</v>
+      </c>
+      <c s="22" r="AN23">
+        <v>11</v>
+      </c>
+      <c s="22" r="AO23">
+        <v>17</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="24" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A24"/>
@@ -3017,80 +4698,149 @@
         </is>
       </c>
       <c s="12" t="str" r="E24"/>
-      <c s="13" t="inlineStr" r="F24">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="16" r="F24">
+        <v>11.7</v>
       </c>
       <c s="13" t="inlineStr" r="G24">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="H24">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="14" r="H24">
+        <v>0</v>
       </c>
       <c s="13" t="inlineStr" r="I24">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J24">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K24">
-        <v>0</v>
-      </c>
-      <c s="14" r="L24">
-        <v>0</v>
+      <c s="16" r="J24">
+        <v>71.7</v>
+      </c>
+      <c s="16" r="K24">
+        <v>37.6</v>
+      </c>
+      <c s="16" r="L24">
+        <v>57.5</v>
       </c>
       <c s="2" t="str" r="M24"/>
       <c s="2" t="str" r="N24"/>
-      <c s="14" r="O24">
+      <c s="16" r="O24">
+        <v>91.8</v>
+      </c>
+      <c s="15" r="P24">
+        <v>165.3</v>
+      </c>
+      <c s="15" r="Q24">
+        <v>155.4</v>
+      </c>
+      <c s="15" r="R24">
+        <v>179.8</v>
+      </c>
+      <c s="15" r="S24">
+        <v>194.3</v>
+      </c>
+      <c s="2" t="str" r="T24"/>
+      <c s="16" r="U24">
+        <v>38.4</v>
+      </c>
+      <c s="15" r="V24">
+        <v>325.5</v>
+      </c>
+      <c s="15" r="W24">
+        <v>259.9</v>
+      </c>
+      <c s="15" r="X24">
+        <v>253.5</v>
+      </c>
+      <c s="14" r="Y24">
         <v>0</v>
       </c>
-      <c s="15" r="P24">
-        <v>0</v>
-      </c>
-      <c s="15" r="Q24">
-        <v>5</v>
-      </c>
-      <c s="16" t="inlineStr" r="R24">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S24"/>
+      <c s="13" t="inlineStr" r="Z24">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AA24">
+        <v>248.3</v>
+      </c>
+      <c s="15" r="AB24">
+        <v>125.5</v>
+      </c>
+      <c s="15" r="AC24">
+        <v>191.2</v>
+      </c>
+      <c s="15" r="AD24">
+        <v>490.1</v>
+      </c>
+      <c s="15" r="AE24">
+        <v>256</v>
+      </c>
+      <c s="20" r="AF24">
+        <v>8.7</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG24">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="20" r="AH24">
+        <v>6.6</v>
+      </c>
+      <c s="16" r="AI24">
+        <v>50.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ24">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK24">
+        <v>2875.3</v>
+      </c>
+      <c s="17" r="AL24">
+        <v>343.9</v>
+      </c>
+      <c s="17" r="AM24">
+        <v>3219.2</v>
+      </c>
+      <c s="18" r="AN24">
+        <v>21</v>
+      </c>
+      <c s="18" r="AO24">
+        <v>7</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP24">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="25" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A25"/>
-      <c s="16" t="inlineStr" r="B25">
+      <c s="19" t="inlineStr" r="B25">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C25">
+      <c s="19" t="inlineStr" r="C25">
         <is>
           <t xml:space="preserve">LHR715~Colombia-Cota~MSP~LV~Nissan-Frontier~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D25">
+      <c s="19" t="inlineStr" r="D25">
         <is>
           <t xml:space="preserve">LHR715</t>
         </is>
       </c>
       <c s="2" t="str" r="E25"/>
-      <c s="17" r="F25">
+      <c s="15" r="F25">
         <v>248.8</v>
       </c>
-      <c s="18" r="G25">
+      <c s="16" r="G25">
         <v>25.5</v>
       </c>
-      <c s="17" r="H25">
+      <c s="15" r="H25">
         <v>238.1</v>
       </c>
       <c s="13" t="inlineStr" r="I25">
@@ -3104,28 +4854,101 @@
         </is>
       </c>
       <c s="20" r="K25">
-        <v>274.3</v>
-      </c>
-      <c s="20" r="L25">
-        <v>238.1</v>
+        <v>4.8</v>
+      </c>
+      <c s="16" r="L25">
+        <v>88.8</v>
       </c>
       <c s="2" t="str" r="M25"/>
       <c s="2" t="str" r="N25"/>
-      <c s="20" r="O25">
-        <v>512.4</v>
-      </c>
-      <c s="21" r="P25">
-        <v>3</v>
-      </c>
-      <c s="21" r="Q25">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R25">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S25"/>
+      <c s="15" r="O25">
+        <v>259.9</v>
+      </c>
+      <c s="15" r="P25">
+        <v>229.9</v>
+      </c>
+      <c s="15" r="Q25">
+        <v>159.1</v>
+      </c>
+      <c s="16" r="R25">
+        <v>13</v>
+      </c>
+      <c s="15" r="S25">
+        <v>250.3</v>
+      </c>
+      <c s="2" t="str" r="T25"/>
+      <c s="15" r="U25">
+        <v>166.4</v>
+      </c>
+      <c s="16" r="V25">
+        <v>85.9</v>
+      </c>
+      <c s="16" r="W25">
+        <v>31.7</v>
+      </c>
+      <c s="15" r="X25">
+        <v>161</v>
+      </c>
+      <c s="16" r="Y25">
+        <v>64.5</v>
+      </c>
+      <c s="15" r="Z25">
+        <v>310.7</v>
+      </c>
+      <c s="15" r="AA25">
+        <v>271.5</v>
+      </c>
+      <c s="15" r="AB25">
+        <v>175.2</v>
+      </c>
+      <c s="15" r="AC25">
+        <v>297.3</v>
+      </c>
+      <c s="16" r="AD25">
+        <v>21.8</v>
+      </c>
+      <c s="15" r="AE25">
+        <v>329.7</v>
+      </c>
+      <c s="13" t="inlineStr" r="AF25">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AG25">
+        <v>77.5</v>
+      </c>
+      <c s="15" r="AH25">
+        <v>161.3</v>
+      </c>
+      <c s="16" r="AI25">
+        <v>22.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ25">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK25">
+        <v>2832.1</v>
+      </c>
+      <c s="21" r="AL25">
+        <v>862.9</v>
+      </c>
+      <c s="21" r="AM25">
+        <v>3695</v>
+      </c>
+      <c s="22" r="AN25">
+        <v>24</v>
+      </c>
+      <c s="22" r="AO25">
+        <v>4</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP25">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="26" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A26"/>
@@ -3145,60 +4968,129 @@
         </is>
       </c>
       <c s="12" t="str" r="E26"/>
-      <c s="18" r="F26">
+      <c s="16" r="F26">
         <v>31.2</v>
       </c>
-      <c s="18" r="G26">
+      <c s="16" r="G26">
         <v>52.9</v>
       </c>
-      <c s="18" r="H26">
+      <c s="16" r="H26">
         <v>52.9</v>
       </c>
-      <c s="18" r="I26">
+      <c s="16" r="I26">
         <v>52.9</v>
       </c>
-      <c s="13" t="inlineStr" r="J26">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K26">
-        <v>84.1</v>
-      </c>
-      <c s="14" r="L26">
-        <v>105.8</v>
+      <c s="16" r="J26">
+        <v>52.9</v>
+      </c>
+      <c s="16" r="K26">
+        <v>53.5</v>
+      </c>
+      <c s="16" r="L26">
+        <v>53.7</v>
       </c>
       <c s="2" t="str" r="M26"/>
       <c s="2" t="str" r="N26"/>
-      <c s="14" r="O26">
-        <v>189.9</v>
-      </c>
-      <c s="15" r="P26">
-        <v>4</v>
-      </c>
-      <c s="15" r="Q26">
-        <v>1</v>
-      </c>
-      <c s="16" t="inlineStr" r="R26">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S26"/>
+      <c s="16" r="O26">
+        <v>53.9</v>
+      </c>
+      <c s="16" r="P26">
+        <v>53.6</v>
+      </c>
+      <c s="16" r="Q26">
+        <v>57.6</v>
+      </c>
+      <c s="16" r="R26">
+        <v>54.6</v>
+      </c>
+      <c s="16" r="S26">
+        <v>70.3</v>
+      </c>
+      <c s="2" t="str" r="T26"/>
+      <c s="16" r="U26">
+        <v>25.4</v>
+      </c>
+      <c s="16" r="V26">
+        <v>42.3</v>
+      </c>
+      <c s="16" r="W26">
+        <v>97.3</v>
+      </c>
+      <c s="16" r="X26">
+        <v>28</v>
+      </c>
+      <c s="15" r="Y26">
+        <v>151.4</v>
+      </c>
+      <c s="16" r="Z26">
+        <v>35</v>
+      </c>
+      <c s="15" r="AA26">
+        <v>116.6</v>
+      </c>
+      <c s="16" r="AB26">
+        <v>98.4</v>
+      </c>
+      <c s="16" r="AC26">
+        <v>52.1</v>
+      </c>
+      <c s="20" r="AD26">
+        <v>7.1</v>
+      </c>
+      <c s="16" r="AE26">
+        <v>50.8</v>
+      </c>
+      <c s="16" r="AF26">
+        <v>27.3</v>
+      </c>
+      <c s="14" r="AG26">
+        <v>0</v>
+      </c>
+      <c s="15" r="AH26">
+        <v>482.5</v>
+      </c>
+      <c s="15" r="AI26">
+        <v>158.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ26">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK26">
+        <v>1581</v>
+      </c>
+      <c s="17" r="AL26">
+        <v>431.7</v>
+      </c>
+      <c s="17" r="AM26">
+        <v>2012.7</v>
+      </c>
+      <c s="18" r="AN26">
+        <v>26</v>
+      </c>
+      <c s="18" r="AO26">
+        <v>2</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP26">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="27" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A27"/>
-      <c s="16" t="inlineStr" r="B27">
+      <c s="19" t="inlineStr" r="B27">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C27">
+      <c s="19" t="inlineStr" r="C27">
         <is>
           <t xml:space="preserve">LHT237~Colombia-Cota~MSP~LV~Toyota-Hilux~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D27">
+      <c s="19" t="inlineStr" r="D27">
         <is>
           <t xml:space="preserve">LHT237</t>
         </is>
@@ -3229,29 +5121,136 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="20" r="K27">
-        <v>0</v>
-      </c>
-      <c s="20" r="L27">
+      <c s="13" t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="L27">
         <v>0</v>
       </c>
       <c s="2" t="str" r="M27"/>
       <c s="2" t="str" r="N27"/>
-      <c s="20" r="O27">
+      <c s="13" t="inlineStr" r="O27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="P27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Q27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="S27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="2" t="str" r="T27"/>
+      <c s="14" r="U27">
         <v>0</v>
       </c>
-      <c s="21" r="P27">
+      <c s="20" r="V27">
+        <v>3</v>
+      </c>
+      <c s="14" r="W27">
         <v>0</v>
       </c>
-      <c s="21" r="Q27">
-        <v>5</v>
-      </c>
-      <c s="16" t="inlineStr" r="R27">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S27"/>
+      <c s="13" t="inlineStr" r="X27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Y27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Z27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AA27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AB27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AC27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AD27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AE27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AF27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AG27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AI27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AJ27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK27">
+        <v>3</v>
+      </c>
+      <c s="21" r="AL27">
+        <v>0</v>
+      </c>
+      <c s="21" r="AM27">
+        <v>3</v>
+      </c>
+      <c s="22" r="AN27">
+        <v>1</v>
+      </c>
+      <c s="22" r="AO27">
+        <v>27</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="28" ht="18.5" customHeight="1">
       <c s="2" t="str" r="A28"/>
@@ -3271,10 +5270,10 @@
         </is>
       </c>
       <c s="12" t="str" r="E28"/>
-      <c s="22" r="F28">
+      <c s="20" r="F28">
         <v>8.2</v>
       </c>
-      <c s="18" r="G28">
+      <c s="16" r="G28">
         <v>23.5</v>
       </c>
       <c s="13" t="inlineStr" r="H28">
@@ -3287,93 +5286,255 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J28">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K28">
-        <v>31.7</v>
-      </c>
-      <c s="14" r="L28">
-        <v>0</v>
+      <c s="20" r="J28">
+        <v>8.7</v>
+      </c>
+      <c s="16" r="K28">
+        <v>30.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="L28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="2" t="str" r="M28"/>
       <c s="2" t="str" r="N28"/>
-      <c s="14" r="O28">
-        <v>31.7</v>
-      </c>
-      <c s="15" r="P28">
-        <v>2</v>
+      <c s="20" r="O28">
+        <v>9.7</v>
+      </c>
+      <c s="13" t="inlineStr" r="P28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="15" r="Q28">
-        <v>3</v>
-      </c>
-      <c s="16" t="inlineStr" r="R28">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S28"/>
+        <v>188.1</v>
+      </c>
+      <c s="15" r="R28">
+        <v>257.6</v>
+      </c>
+      <c s="16" r="S28">
+        <v>65.1</v>
+      </c>
+      <c s="2" t="str" r="T28"/>
+      <c s="13" t="inlineStr" r="U28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="V28">
+        <v>97.7</v>
+      </c>
+      <c s="15" r="W28">
+        <v>137.8</v>
+      </c>
+      <c s="16" r="X28">
+        <v>52.4</v>
+      </c>
+      <c s="16" r="Y28">
+        <v>41.6</v>
+      </c>
+      <c s="16" r="Z28">
+        <v>92</v>
+      </c>
+      <c s="16" r="AA28">
+        <v>63.3</v>
+      </c>
+      <c s="20" r="AB28">
+        <v>0.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AC28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AD28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AE28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AF28">
+        <v>40.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AI28">
+        <v>160.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK28">
+        <v>657.4</v>
+      </c>
+      <c s="17" r="AL28">
+        <v>619.6</v>
+      </c>
+      <c s="17" r="AM28">
+        <v>1277</v>
+      </c>
+      <c s="18" r="AN28">
+        <v>17</v>
+      </c>
+      <c s="18" r="AO28">
+        <v>11</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="29" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A29"/>
-      <c s="16" t="inlineStr" r="B29">
+      <c s="19" t="inlineStr" r="B29">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C29">
+      <c s="19" t="inlineStr" r="C29">
         <is>
           <t xml:space="preserve">LHT626~Colombia-Cota~MSP~LV~Nissan-Frontier~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D29">
+      <c s="19" t="inlineStr" r="D29">
         <is>
           <t xml:space="preserve">LHT626</t>
         </is>
       </c>
       <c s="2" t="str" r="E29"/>
-      <c s="18" r="F29">
+      <c s="16" r="F29">
         <v>47.1</v>
       </c>
-      <c s="18" r="G29">
+      <c s="16" r="G29">
         <v>46.6</v>
       </c>
-      <c s="17" r="H29">
+      <c s="15" r="H29">
         <v>126.2</v>
       </c>
-      <c s="18" r="I29">
+      <c s="16" r="I29">
         <v>81.9</v>
       </c>
-      <c s="13" t="inlineStr" r="J29">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K29">
-        <v>93.7</v>
-      </c>
-      <c s="20" r="L29">
-        <v>208.1</v>
+      <c s="16" r="J29">
+        <v>98.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="L29">
+        <v>26.2</v>
       </c>
       <c s="2" t="str" r="M29"/>
       <c s="2" t="str" r="N29"/>
-      <c s="20" r="O29">
-        <v>301.8</v>
-      </c>
-      <c s="21" r="P29">
-        <v>4</v>
-      </c>
-      <c s="21" r="Q29">
-        <v>1</v>
-      </c>
-      <c s="16" t="inlineStr" r="R29">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S29"/>
+      <c s="16" r="O29">
+        <v>47.3</v>
+      </c>
+      <c s="16" r="P29">
+        <v>39.3</v>
+      </c>
+      <c s="15" r="Q29">
+        <v>134.7</v>
+      </c>
+      <c s="15" r="R29">
+        <v>457.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="S29">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="2" t="str" r="T29"/>
+      <c s="16" r="U29">
+        <v>34.2</v>
+      </c>
+      <c s="16" r="V29">
+        <v>17.2</v>
+      </c>
+      <c s="20" r="W29">
+        <v>5.6</v>
+      </c>
+      <c s="14" r="X29">
+        <v>0</v>
+      </c>
+      <c s="15" r="Y29">
+        <v>160.9</v>
+      </c>
+      <c s="15" r="Z29">
+        <v>110.6</v>
+      </c>
+      <c s="15" r="AA29">
+        <v>228.5</v>
+      </c>
+      <c s="16" r="AB29">
+        <v>60.5</v>
+      </c>
+      <c s="16" r="AC29">
+        <v>39.4</v>
+      </c>
+      <c s="16" r="AD29">
+        <v>72.2</v>
+      </c>
+      <c s="15" r="AE29">
+        <v>210.5</v>
+      </c>
+      <c s="14" r="AF29">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG29">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH29">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="AI29">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ29">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK29">
+        <v>973.2</v>
+      </c>
+      <c s="21" r="AL29">
+        <v>1071.9</v>
+      </c>
+      <c s="21" r="AM29">
+        <v>2045.1</v>
+      </c>
+      <c s="22" r="AN29">
+        <v>20</v>
+      </c>
+      <c s="22" r="AO29">
+        <v>8</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP29">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="30" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A30"/>
@@ -3408,57 +5569,142 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="22" r="I30">
+      <c s="20" r="I30">
         <v>6.2</v>
       </c>
-      <c s="13" t="inlineStr" r="J30">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K30">
-        <v>0</v>
-      </c>
-      <c s="14" r="L30">
-        <v>6.2</v>
+      <c s="15" r="J30">
+        <v>167.8</v>
+      </c>
+      <c s="13" t="inlineStr" r="K30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="L30">
+        <v>159</v>
       </c>
       <c s="2" t="str" r="M30"/>
       <c s="2" t="str" r="N30"/>
-      <c s="14" r="O30">
+      <c s="15" r="O30">
+        <v>138.1</v>
+      </c>
+      <c s="14" r="P30">
+        <v>0</v>
+      </c>
+      <c s="14" r="Q30">
+        <v>0</v>
+      </c>
+      <c s="14" r="R30">
+        <v>0</v>
+      </c>
+      <c s="16" r="S30">
+        <v>18.4</v>
+      </c>
+      <c s="2" t="str" r="T30"/>
+      <c s="16" r="U30">
+        <v>65.9</v>
+      </c>
+      <c s="15" r="V30">
+        <v>159.7</v>
+      </c>
+      <c s="16" r="W30">
+        <v>99</v>
+      </c>
+      <c s="13" t="inlineStr" r="X30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Y30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Z30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AA30">
+        <v>80</v>
+      </c>
+      <c s="15" r="AB30">
+        <v>108.6</v>
+      </c>
+      <c s="15" r="AC30">
+        <v>151.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AE30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AF30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AG30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AH30">
+        <v>150.8</v>
+      </c>
+      <c s="15" r="AI30">
+        <v>160.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK30">
+        <v>1459.2</v>
+      </c>
+      <c s="17" r="AL30">
         <v>6.2</v>
       </c>
-      <c s="15" r="P30">
-        <v>1</v>
-      </c>
-      <c s="15" r="Q30">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R30">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S30"/>
+      <c s="17" r="AM30">
+        <v>1465.4</v>
+      </c>
+      <c s="18" r="AN30">
+        <v>13</v>
+      </c>
+      <c s="18" r="AO30">
+        <v>15</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="31" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A31"/>
-      <c s="16" t="inlineStr" r="B31">
+      <c s="19" t="inlineStr" r="B31">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C31">
+      <c s="19" t="inlineStr" r="C31">
         <is>
           <t xml:space="preserve">LHV857~Colombia-Cota~MSP~LV~Suzuki-SWIFT-Hibrido~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D31">
+      <c s="19" t="inlineStr" r="D31">
         <is>
           <t xml:space="preserve">LHV857</t>
         </is>
       </c>
       <c s="2" t="str" r="E31"/>
-      <c s="18" r="F31">
+      <c s="16" r="F31">
         <v>77.4</v>
       </c>
       <c s="13" t="inlineStr" r="G31">
@@ -3471,37 +5717,118 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="19" r="I31">
+      <c s="14" r="I31">
         <v>0</v>
       </c>
-      <c s="13" t="inlineStr" r="J31">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K31">
-        <v>77.4</v>
-      </c>
-      <c s="20" r="L31">
-        <v>0</v>
+      <c s="15" r="J31">
+        <v>157.7</v>
+      </c>
+      <c s="15" r="K31">
+        <v>121.8</v>
+      </c>
+      <c s="15" r="L31">
+        <v>190.9</v>
       </c>
       <c s="2" t="str" r="M31"/>
       <c s="2" t="str" r="N31"/>
-      <c s="20" r="O31">
-        <v>77.4</v>
-      </c>
-      <c s="21" r="P31">
-        <v>1</v>
-      </c>
-      <c s="21" r="Q31">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R31">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S31"/>
+      <c s="15" r="O31">
+        <v>125.9</v>
+      </c>
+      <c s="13" t="inlineStr" r="P31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Q31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="S31">
+        <v>0</v>
+      </c>
+      <c s="2" t="str" r="T31"/>
+      <c s="16" r="U31">
+        <v>58.4</v>
+      </c>
+      <c s="15" r="V31">
+        <v>114.7</v>
+      </c>
+      <c s="14" r="W31">
+        <v>0</v>
+      </c>
+      <c s="16" r="X31">
+        <v>81.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="Y31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="14" r="Z31">
+        <v>0</v>
+      </c>
+      <c s="16" r="AA31">
+        <v>34.4</v>
+      </c>
+      <c s="20" r="AB31">
+        <v>3.9</v>
+      </c>
+      <c s="15" r="AC31">
+        <v>158.6</v>
+      </c>
+      <c s="14" r="AD31">
+        <v>0</v>
+      </c>
+      <c s="15" r="AE31">
+        <v>112</v>
+      </c>
+      <c s="16" r="AF31">
+        <v>40</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AI31">
+        <v>107.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK31">
+        <v>1344</v>
+      </c>
+      <c s="21" r="AL31">
+        <v>40</v>
+      </c>
+      <c s="21" r="AM31">
+        <v>1384</v>
+      </c>
+      <c s="22" r="AN31">
+        <v>14</v>
+      </c>
+      <c s="22" r="AO31">
+        <v>14</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="32" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A32"/>
@@ -3521,105 +5848,269 @@
         </is>
       </c>
       <c s="12" t="str" r="E32"/>
-      <c s="18" r="F32">
+      <c s="16" r="F32">
         <v>13.7</v>
       </c>
-      <c s="22" r="G32">
+      <c s="20" r="G32">
         <v>4.2</v>
       </c>
-      <c s="19" r="H32">
+      <c s="14" r="H32">
         <v>0</v>
       </c>
-      <c s="19" r="I32">
+      <c s="14" r="I32">
         <v>0</v>
       </c>
-      <c s="13" t="inlineStr" r="J32">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K32">
-        <v>17.9</v>
-      </c>
-      <c s="14" r="L32">
-        <v>0</v>
+      <c s="15" r="J32">
+        <v>148.1</v>
+      </c>
+      <c s="16" r="K32">
+        <v>81.5</v>
+      </c>
+      <c s="15" r="L32">
+        <v>166.6</v>
       </c>
       <c s="2" t="str" r="M32"/>
       <c s="2" t="str" r="N32"/>
-      <c s="14" r="O32">
-        <v>17.9</v>
+      <c s="15" r="O32">
+        <v>181.3</v>
       </c>
       <c s="15" r="P32">
-        <v>2</v>
-      </c>
-      <c s="15" r="Q32">
-        <v>3</v>
-      </c>
-      <c s="16" t="inlineStr" r="R32">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S32"/>
+        <v>198.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="Q32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="S32">
+        <v>36.2</v>
+      </c>
+      <c s="2" t="str" r="T32"/>
+      <c s="16" r="U32">
+        <v>25.3</v>
+      </c>
+      <c s="15" r="V32">
+        <v>216.4</v>
+      </c>
+      <c s="15" r="W32">
+        <v>266.9</v>
+      </c>
+      <c s="15" r="X32">
+        <v>206.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="Y32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="20" r="Z32">
+        <v>0.2</v>
+      </c>
+      <c s="15" r="AA32">
+        <v>322.7</v>
+      </c>
+      <c s="20" r="AB32">
+        <v>9.9</v>
+      </c>
+      <c s="15" r="AC32">
+        <v>280.3</v>
+      </c>
+      <c s="15" r="AD32">
+        <v>163.8</v>
+      </c>
+      <c s="13" t="inlineStr" r="AE32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AF32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AG32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AI32">
+        <v>362.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK32">
+        <v>2684.2</v>
+      </c>
+      <c s="17" r="AL32">
+        <v>0.2</v>
+      </c>
+      <c s="17" r="AM32">
+        <v>2684.4</v>
+      </c>
+      <c s="18" r="AN32">
+        <v>18</v>
+      </c>
+      <c s="18" r="AO32">
+        <v>10</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="33" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A33"/>
-      <c s="16" t="inlineStr" r="B33">
+      <c s="19" t="inlineStr" r="B33">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C33">
+      <c s="19" t="inlineStr" r="C33">
         <is>
           <t xml:space="preserve">LHV956~Colombia-Cota~MSP~LV~Toyota-Hilux~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D33">
+      <c s="19" t="inlineStr" r="D33">
         <is>
           <t xml:space="preserve">LHV956</t>
         </is>
       </c>
       <c s="2" t="str" r="E33"/>
-      <c s="18" r="F33">
+      <c s="16" r="F33">
         <v>55.8</v>
       </c>
-      <c s="18" r="G33">
+      <c s="16" r="G33">
         <v>17.3</v>
       </c>
-      <c s="18" r="H33">
+      <c s="16" r="H33">
         <v>17.9</v>
       </c>
-      <c s="19" r="I33">
+      <c s="14" r="I33">
         <v>0</v>
       </c>
-      <c s="13" t="inlineStr" r="J33">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K33">
-        <v>73.1</v>
-      </c>
-      <c s="20" r="L33">
-        <v>17.9</v>
+      <c s="15" r="J33">
+        <v>113</v>
+      </c>
+      <c s="15" r="K33">
+        <v>234.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="L33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="2" t="str" r="M33"/>
       <c s="2" t="str" r="N33"/>
-      <c s="20" r="O33">
-        <v>91</v>
-      </c>
-      <c s="21" r="P33">
-        <v>3</v>
-      </c>
-      <c s="21" r="Q33">
-        <v>2</v>
-      </c>
-      <c s="16" t="inlineStr" r="R33">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S33"/>
+      <c s="13" t="inlineStr" r="O33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="P33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Q33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="S33">
+        <v>336.4</v>
+      </c>
+      <c s="2" t="str" r="T33"/>
+      <c s="15" r="U33">
+        <v>217.5</v>
+      </c>
+      <c s="15" r="V33">
+        <v>333.2</v>
+      </c>
+      <c s="15" r="W33">
+        <v>359.2</v>
+      </c>
+      <c s="20" r="X33">
+        <v>5.1</v>
+      </c>
+      <c s="15" r="Y33">
+        <v>145.4</v>
+      </c>
+      <c s="15" r="Z33">
+        <v>328</v>
+      </c>
+      <c s="15" r="AA33">
+        <v>213.2</v>
+      </c>
+      <c s="15" r="AB33">
+        <v>272.8</v>
+      </c>
+      <c s="15" r="AC33">
+        <v>147.9</v>
+      </c>
+      <c s="15" r="AD33">
+        <v>115.6</v>
+      </c>
+      <c s="14" r="AE33">
+        <v>0</v>
+      </c>
+      <c s="20" r="AF33">
+        <v>0.8</v>
+      </c>
+      <c s="20" r="AG33">
+        <v>6.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AH33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AI33">
+        <v>359.5</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK33">
+        <v>2781.1</v>
+      </c>
+      <c s="21" r="AL33">
+        <v>498.5</v>
+      </c>
+      <c s="21" r="AM33">
+        <v>3279.6</v>
+      </c>
+      <c s="22" r="AN33">
+        <v>19</v>
+      </c>
+      <c s="22" r="AO33">
+        <v>9</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="34" ht="18.5" customHeight="1">
       <c s="2" t="str" r="A34"/>
@@ -3639,105 +6130,245 @@
         </is>
       </c>
       <c s="12" t="str" r="E34"/>
-      <c s="17" r="F34">
+      <c s="15" r="F34">
         <v>263.4</v>
       </c>
-      <c s="18" r="G34">
+      <c s="16" r="G34">
         <v>92.8</v>
       </c>
-      <c s="17" r="H34">
+      <c s="15" r="H34">
         <v>137.9</v>
       </c>
-      <c s="17" r="I34">
+      <c s="15" r="I34">
         <v>360.3</v>
       </c>
-      <c s="13" t="inlineStr" r="J34">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K34">
-        <v>356.2</v>
-      </c>
-      <c s="14" r="L34">
-        <v>498.2</v>
+      <c s="15" r="J34">
+        <v>374.1</v>
+      </c>
+      <c s="15" r="K34">
+        <v>364.9</v>
+      </c>
+      <c s="15" r="L34">
+        <v>354</v>
       </c>
       <c s="2" t="str" r="M34"/>
       <c s="2" t="str" r="N34"/>
-      <c s="14" r="O34">
-        <v>854.4</v>
-      </c>
-      <c s="15" r="P34">
-        <v>4</v>
-      </c>
-      <c s="15" r="Q34">
+      <c s="16" r="O34">
+        <v>47.7</v>
+      </c>
+      <c s="16" r="P34">
+        <v>74.3</v>
+      </c>
+      <c s="16" r="Q34">
+        <v>72.6</v>
+      </c>
+      <c s="16" r="R34">
+        <v>97.5</v>
+      </c>
+      <c s="15" r="S34">
+        <v>326.6</v>
+      </c>
+      <c s="2" t="str" r="T34"/>
+      <c s="16" r="U34">
+        <v>11.5</v>
+      </c>
+      <c s="16" r="V34">
+        <v>18.7</v>
+      </c>
+      <c s="16" r="W34">
+        <v>47.4</v>
+      </c>
+      <c s="20" r="X34">
+        <v>3.5</v>
+      </c>
+      <c s="15" r="Y34">
+        <v>389.5</v>
+      </c>
+      <c s="15" r="Z34">
+        <v>216.5</v>
+      </c>
+      <c s="15" r="AA34">
+        <v>213.9</v>
+      </c>
+      <c s="15" r="AB34">
+        <v>145.1</v>
+      </c>
+      <c s="15" r="AC34">
+        <v>198.5</v>
+      </c>
+      <c s="15" r="AD34">
+        <v>158.9</v>
+      </c>
+      <c s="15" r="AE34">
+        <v>218.6</v>
+      </c>
+      <c s="15" r="AF34">
+        <v>107.7</v>
+      </c>
+      <c s="15" r="AG34">
+        <v>108.2</v>
+      </c>
+      <c s="15" r="AH34">
+        <v>114.4</v>
+      </c>
+      <c s="15" r="AI34">
+        <v>151.9</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ34">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK34">
+        <v>3180.2</v>
+      </c>
+      <c s="17" r="AL34">
+        <v>1490.2</v>
+      </c>
+      <c s="17" r="AM34">
+        <v>4670.4</v>
+      </c>
+      <c s="18" r="AN34">
+        <v>27</v>
+      </c>
+      <c s="18" r="AO34">
         <v>1</v>
       </c>
-      <c s="16" t="inlineStr" r="R34">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S34"/>
+      <c s="19" t="inlineStr" r="AP34">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="35" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A35"/>
-      <c s="16" t="inlineStr" r="B35">
+      <c s="19" t="inlineStr" r="B35">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C35">
+      <c s="19" t="inlineStr" r="C35">
         <is>
           <t xml:space="preserve">LLP991~Colombia-Cota~MSP~LV~Chevrolet-Colorado~SLB~TransportesMasa~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D35">
+      <c s="19" t="inlineStr" r="D35">
         <is>
           <t xml:space="preserve">LLP991</t>
         </is>
       </c>
       <c s="2" t="str" r="E35"/>
-      <c s="18" r="F35">
+      <c s="16" r="F35">
         <v>78.6</v>
       </c>
-      <c s="18" r="G35">
+      <c s="16" r="G35">
         <v>47</v>
       </c>
-      <c s="18" r="H35">
+      <c s="16" r="H35">
         <v>45.3</v>
       </c>
-      <c s="18" r="I35">
+      <c s="16" r="I35">
         <v>65.4</v>
       </c>
-      <c s="13" t="inlineStr" r="J35">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K35">
-        <v>125.6</v>
-      </c>
-      <c s="20" r="L35">
-        <v>110.7</v>
+      <c s="16" r="J35">
+        <v>52.9</v>
+      </c>
+      <c s="16" r="K35">
+        <v>42</v>
+      </c>
+      <c s="15" r="L35">
+        <v>314.6</v>
       </c>
       <c s="2" t="str" r="M35"/>
       <c s="2" t="str" r="N35"/>
-      <c s="20" r="O35">
-        <v>236.3</v>
-      </c>
-      <c s="21" r="P35">
-        <v>4</v>
-      </c>
-      <c s="21" r="Q35">
-        <v>1</v>
-      </c>
-      <c s="16" t="inlineStr" r="R35">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S35"/>
+      <c s="16" r="O35">
+        <v>35.1</v>
+      </c>
+      <c s="16" r="P35">
+        <v>22.1</v>
+      </c>
+      <c s="13" t="inlineStr" r="Q35">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="R35">
+        <v>31.8</v>
+      </c>
+      <c s="15" r="S35">
+        <v>311.7</v>
+      </c>
+      <c s="2" t="str" r="T35"/>
+      <c s="16" r="U35">
+        <v>47.9</v>
+      </c>
+      <c s="16" r="V35">
+        <v>42.5</v>
+      </c>
+      <c s="16" r="W35">
+        <v>33.2</v>
+      </c>
+      <c s="16" r="X35">
+        <v>26.8</v>
+      </c>
+      <c s="16" r="Y35">
+        <v>40.9</v>
+      </c>
+      <c s="16" r="Z35">
+        <v>33.8</v>
+      </c>
+      <c s="15" r="AA35">
+        <v>137.2</v>
+      </c>
+      <c s="15" r="AB35">
+        <v>137.2</v>
+      </c>
+      <c s="16" r="AC35">
+        <v>39.3</v>
+      </c>
+      <c s="16" r="AD35">
+        <v>35.8</v>
+      </c>
+      <c s="16" r="AE35">
+        <v>86</v>
+      </c>
+      <c s="16" r="AF35">
+        <v>52.5</v>
+      </c>
+      <c s="15" r="AG35">
+        <v>300.7</v>
+      </c>
+      <c s="16" r="AH35">
+        <v>36.9</v>
+      </c>
+      <c s="15" r="AI35">
+        <v>185.8</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ35">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK35">
+        <v>1712.6</v>
+      </c>
+      <c s="21" r="AL35">
+        <v>570.4</v>
+      </c>
+      <c s="21" r="AM35">
+        <v>2283</v>
+      </c>
+      <c s="22" r="AN35">
+        <v>26</v>
+      </c>
+      <c s="22" r="AO35">
+        <v>2</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP35">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="36" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A36"/>
@@ -3757,66 +6388,135 @@
         </is>
       </c>
       <c s="12" t="str" r="E36"/>
-      <c s="18" r="F36">
+      <c s="16" r="F36">
         <v>42.5</v>
       </c>
-      <c s="18" r="G36">
+      <c s="16" r="G36">
         <v>96.8</v>
       </c>
-      <c s="17" r="H36">
+      <c s="15" r="H36">
         <v>155.9</v>
       </c>
-      <c s="17" r="I36">
+      <c s="15" r="I36">
         <v>177.9</v>
       </c>
-      <c s="13" t="inlineStr" r="J36">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K36">
-        <v>139.3</v>
-      </c>
-      <c s="14" r="L36">
-        <v>333.8</v>
+      <c s="16" r="J36">
+        <v>83.1</v>
+      </c>
+      <c s="16" r="K36">
+        <v>54</v>
+      </c>
+      <c s="16" r="L36">
+        <v>91.2</v>
       </c>
       <c s="2" t="str" r="M36"/>
       <c s="2" t="str" r="N36"/>
-      <c s="14" r="O36">
-        <v>473.1</v>
-      </c>
-      <c s="15" r="P36">
-        <v>4</v>
+      <c s="16" r="O36">
+        <v>47.8</v>
+      </c>
+      <c s="16" r="P36">
+        <v>55.7</v>
       </c>
       <c s="15" r="Q36">
+        <v>143.7</v>
+      </c>
+      <c s="16" r="R36">
+        <v>37.6</v>
+      </c>
+      <c s="16" r="S36">
+        <v>74.9</v>
+      </c>
+      <c s="2" t="str" r="T36"/>
+      <c s="16" r="U36">
+        <v>76.2</v>
+      </c>
+      <c s="16" r="V36">
+        <v>57.4</v>
+      </c>
+      <c s="16" r="W36">
+        <v>82.7</v>
+      </c>
+      <c s="16" r="X36">
+        <v>77.1</v>
+      </c>
+      <c s="16" r="Y36">
+        <v>93.2</v>
+      </c>
+      <c s="15" r="Z36">
+        <v>191.1</v>
+      </c>
+      <c s="15" r="AA36">
+        <v>149.9</v>
+      </c>
+      <c s="15" r="AB36">
+        <v>108.1</v>
+      </c>
+      <c s="15" r="AC36">
+        <v>132.3</v>
+      </c>
+      <c s="16" r="AD36">
+        <v>76.2</v>
+      </c>
+      <c s="16" r="AE36">
+        <v>62.2</v>
+      </c>
+      <c s="16" r="AF36">
+        <v>97.9</v>
+      </c>
+      <c s="16" r="AG36">
+        <v>50.2</v>
+      </c>
+      <c s="15" r="AH36">
+        <v>102.6</v>
+      </c>
+      <c s="15" r="AI36">
+        <v>169.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ36">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK36">
+        <v>1640</v>
+      </c>
+      <c s="17" r="AL36">
+        <v>947.5</v>
+      </c>
+      <c s="17" r="AM36">
+        <v>2587.5</v>
+      </c>
+      <c s="18" r="AN36">
+        <v>27</v>
+      </c>
+      <c s="18" r="AO36">
         <v>1</v>
       </c>
-      <c s="16" t="inlineStr" r="R36">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S36"/>
+      <c s="19" t="inlineStr" r="AP36">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="37" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A37"/>
-      <c s="16" t="inlineStr" r="B37">
+      <c s="19" t="inlineStr" r="B37">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C37">
+      <c s="19" t="inlineStr" r="C37">
         <is>
           <t xml:space="preserve">LQS612~Colombia-Cota~MSP~LV~Suzuki-SWIFT-Hibrido~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D37">
+      <c s="19" t="inlineStr" r="D37">
         <is>
           <t xml:space="preserve">LQS612</t>
         </is>
       </c>
       <c s="2" t="str" r="E37"/>
-      <c s="18" r="F37">
+      <c s="16" r="F37">
         <v>49.1</v>
       </c>
       <c s="13" t="inlineStr" r="G37">
@@ -3834,34 +6534,103 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J37">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="16" r="J37">
+        <v>54.8</v>
       </c>
       <c s="20" r="K37">
-        <v>49.1</v>
-      </c>
-      <c s="20" r="L37">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c s="15" r="L37">
+        <v>111</v>
       </c>
       <c s="2" t="str" r="M37"/>
       <c s="2" t="str" r="N37"/>
       <c s="20" r="O37">
-        <v>49.1</v>
-      </c>
-      <c s="21" r="P37">
-        <v>1</v>
-      </c>
-      <c s="21" r="Q37">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R37">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S37"/>
+        <v>0.4</v>
+      </c>
+      <c s="15" r="P37">
+        <v>126.5</v>
+      </c>
+      <c s="20" r="Q37">
+        <v>0.4</v>
+      </c>
+      <c s="20" r="R37">
+        <v>2.2</v>
+      </c>
+      <c s="20" r="S37">
+        <v>3.9</v>
+      </c>
+      <c s="2" t="str" r="T37"/>
+      <c s="20" r="U37">
+        <v>0.9</v>
+      </c>
+      <c s="16" r="V37">
+        <v>20.7</v>
+      </c>
+      <c s="16" r="W37">
+        <v>88.7</v>
+      </c>
+      <c s="16" r="X37">
+        <v>50.5</v>
+      </c>
+      <c s="16" r="Y37">
+        <v>25</v>
+      </c>
+      <c s="20" r="Z37">
+        <v>1.3</v>
+      </c>
+      <c s="16" r="AA37">
+        <v>93.6</v>
+      </c>
+      <c s="14" r="AB37">
+        <v>0</v>
+      </c>
+      <c s="15" r="AC37">
+        <v>108</v>
+      </c>
+      <c s="14" r="AD37">
+        <v>0</v>
+      </c>
+      <c s="20" r="AE37">
+        <v>0.8</v>
+      </c>
+      <c s="20" r="AF37">
+        <v>2.1</v>
+      </c>
+      <c s="20" r="AG37">
+        <v>0.9</v>
+      </c>
+      <c s="16" r="AH37">
+        <v>73.4</v>
+      </c>
+      <c s="20" r="AI37">
+        <v>0.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ37">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK37">
+        <v>783.5</v>
+      </c>
+      <c s="21" r="AL37">
+        <v>31.9</v>
+      </c>
+      <c s="21" r="AM37">
+        <v>815.4</v>
+      </c>
+      <c s="22" r="AN37">
+        <v>22</v>
+      </c>
+      <c s="22" r="AO37">
+        <v>6</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP37">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="38" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A38"/>
@@ -3881,7 +6650,7 @@
         </is>
       </c>
       <c s="12" t="str" r="E38"/>
-      <c s="18" r="F38">
+      <c s="16" r="F38">
         <v>11</v>
       </c>
       <c s="13" t="inlineStr" r="G38">
@@ -3899,54 +6668,143 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J38">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K38">
-        <v>11</v>
-      </c>
-      <c s="14" r="L38">
-        <v>0</v>
+      <c s="15" r="J38">
+        <v>105.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="L38">
+        <v>100.1</v>
       </c>
       <c s="2" t="str" r="M38"/>
       <c s="2" t="str" r="N38"/>
-      <c s="14" r="O38">
-        <v>11</v>
-      </c>
-      <c s="15" r="P38">
-        <v>1</v>
-      </c>
-      <c s="15" r="Q38">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R38">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S38"/>
+      <c s="16" r="O38">
+        <v>94.6</v>
+      </c>
+      <c s="13" t="inlineStr" r="P38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Q38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="R38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="S38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="2" t="str" r="T38"/>
+      <c s="16" r="U38">
+        <v>41.1</v>
+      </c>
+      <c s="16" r="V38">
+        <v>95.2</v>
+      </c>
+      <c s="16" r="W38">
+        <v>26.3</v>
+      </c>
+      <c s="16" r="X38">
+        <v>54.9</v>
+      </c>
+      <c s="13" t="inlineStr" r="Y38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="Z38">
+        <v>62.7</v>
+      </c>
+      <c s="16" r="AA38">
+        <v>66.7</v>
+      </c>
+      <c s="16" r="AB38">
+        <v>60.6</v>
+      </c>
+      <c s="16" r="AC38">
+        <v>83</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AE38">
+        <v>66.9</v>
+      </c>
+      <c s="14" r="AF38">
+        <v>0</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AH38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AI38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AJ38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK38">
+        <v>805.8</v>
+      </c>
+      <c s="17" r="AL38">
+        <v>62.7</v>
+      </c>
+      <c s="17" r="AM38">
+        <v>868.5</v>
+      </c>
+      <c s="18" r="AN38">
+        <v>13</v>
+      </c>
+      <c s="18" r="AO38">
+        <v>15</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="39" ht="18.5" customHeight="1">
       <c s="2" t="str" r="A39"/>
-      <c s="16" t="inlineStr" r="B39">
+      <c s="19" t="inlineStr" r="B39">
         <is>
           <t xml:space="preserve">COL - LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="C39">
+      <c s="19" t="inlineStr" r="C39">
         <is>
           <t xml:space="preserve">LQT416~Colombia-Cota~MSP~LV~Dongfeng-Rich EV~SLB~Entrapetrol~Nacional~LTC</t>
         </is>
       </c>
-      <c s="16" t="inlineStr" r="D39">
+      <c s="19" t="inlineStr" r="D39">
         <is>
           <t xml:space="preserve">LQT416</t>
         </is>
       </c>
       <c s="2" t="str" r="E39"/>
-      <c s="18" r="F39">
+      <c s="16" r="F39">
         <v>47.9</v>
       </c>
       <c s="13" t="inlineStr" r="G39">
@@ -3964,34 +6822,119 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="J39">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" r="K39">
-        <v>47.9</v>
-      </c>
-      <c s="20" r="L39">
-        <v>0</v>
+      <c s="16" r="J39">
+        <v>79.6</v>
+      </c>
+      <c s="16" r="K39">
+        <v>45.1</v>
+      </c>
+      <c s="16" r="L39">
+        <v>94.5</v>
       </c>
       <c s="2" t="str" r="M39"/>
       <c s="2" t="str" r="N39"/>
-      <c s="20" r="O39">
-        <v>47.9</v>
-      </c>
-      <c s="21" r="P39">
-        <v>1</v>
-      </c>
-      <c s="21" r="Q39">
-        <v>4</v>
-      </c>
-      <c s="16" t="inlineStr" r="R39">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S39"/>
+      <c s="16" r="O39">
+        <v>94.8</v>
+      </c>
+      <c s="16" r="P39">
+        <v>52.2</v>
+      </c>
+      <c s="16" r="Q39">
+        <v>47.6</v>
+      </c>
+      <c s="16" r="R39">
+        <v>36</v>
+      </c>
+      <c s="13" t="inlineStr" r="S39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="2" t="str" r="T39"/>
+      <c s="16" r="U39">
+        <v>96</v>
+      </c>
+      <c s="15" r="V39">
+        <v>116.9</v>
+      </c>
+      <c s="13" t="inlineStr" r="W39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="X39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Y39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="Z39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="16" r="AA39">
+        <v>81</v>
+      </c>
+      <c s="13" t="inlineStr" r="AB39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AC39">
+        <v>153.2</v>
+      </c>
+      <c s="13" t="inlineStr" r="AD39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AE39">
+        <v>111.9</v>
+      </c>
+      <c s="14" r="AF39">
+        <v>0</v>
+      </c>
+      <c s="16" r="AG39">
+        <v>46.2</v>
+      </c>
+      <c s="15" r="AH39">
+        <v>102.3</v>
+      </c>
+      <c s="13" t="inlineStr" r="AI39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="AJ39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="21" r="AK39">
+        <v>1075.4</v>
+      </c>
+      <c s="21" r="AL39">
+        <v>129.8</v>
+      </c>
+      <c s="21" r="AM39">
+        <v>1205.2</v>
+      </c>
+      <c s="22" r="AN39">
+        <v>15</v>
+      </c>
+      <c s="22" r="AO39">
+        <v>13</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="40" ht="18.45" customHeight="1">
       <c s="2" t="str" r="A40"/>
@@ -4011,46 +6954,117 @@
         </is>
       </c>
       <c s="12" t="str" r="E40"/>
-      <c s="17" r="F40">
+      <c s="15" r="F40">
         <v>186.5</v>
       </c>
-      <c s="22" r="G40">
+      <c s="20" r="G40">
         <v>4.5</v>
       </c>
-      <c s="18" r="H40">
+      <c s="16" r="H40">
         <v>32</v>
       </c>
-      <c s="18" r="I40">
+      <c s="16" r="I40">
         <v>28.9</v>
       </c>
-      <c s="13" t="inlineStr" r="J40">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="14" r="K40">
-        <v>191</v>
-      </c>
-      <c s="14" r="L40">
-        <v>60.9</v>
+      <c s="15" r="J40">
+        <v>317.5</v>
+      </c>
+      <c s="15" r="K40">
+        <v>337.7</v>
+      </c>
+      <c s="16" r="L40">
+        <v>16.3</v>
       </c>
       <c s="2" t="str" r="M40"/>
       <c s="2" t="str" r="N40"/>
-      <c s="14" r="O40">
-        <v>251.9</v>
-      </c>
-      <c s="15" r="P40">
-        <v>4</v>
+      <c s="15" r="O40">
+        <v>209.2</v>
+      </c>
+      <c s="16" r="P40">
+        <v>66.4</v>
       </c>
       <c s="15" r="Q40">
-        <v>1</v>
-      </c>
-      <c s="16" t="inlineStr" r="R40">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S40"/>
+        <v>102.6</v>
+      </c>
+      <c s="15" r="R40">
+        <v>234.4</v>
+      </c>
+      <c s="16" r="S40">
+        <v>89.7</v>
+      </c>
+      <c s="2" t="str" r="T40"/>
+      <c s="15" r="U40">
+        <v>361.7</v>
+      </c>
+      <c s="16" r="V40">
+        <v>59.6</v>
+      </c>
+      <c s="15" r="W40">
+        <v>221.9</v>
+      </c>
+      <c s="15" r="X40">
+        <v>139</v>
+      </c>
+      <c s="15" r="Y40">
+        <v>423.7</v>
+      </c>
+      <c s="15" r="Z40">
+        <v>299.7</v>
+      </c>
+      <c s="15" r="AA40">
+        <v>356</v>
+      </c>
+      <c s="15" r="AB40">
+        <v>163.7</v>
+      </c>
+      <c s="16" r="AC40">
+        <v>17.8</v>
+      </c>
+      <c s="16" r="AD40">
+        <v>56.9</v>
+      </c>
+      <c s="15" r="AE40">
+        <v>266.9</v>
+      </c>
+      <c s="16" r="AF40">
+        <v>21.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AG40">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="15" r="AH40">
+        <v>169.9</v>
+      </c>
+      <c s="15" r="AI40">
+        <v>190.4</v>
+      </c>
+      <c s="13" t="inlineStr" r="AJ40">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="17" r="AK40">
+        <v>3231.6</v>
+      </c>
+      <c s="17" r="AL40">
+        <v>1142.7</v>
+      </c>
+      <c s="17" r="AM40">
+        <v>4374.3</v>
+      </c>
+      <c s="18" r="AN40">
+        <v>26</v>
+      </c>
+      <c s="18" r="AO40">
+        <v>2</v>
+      </c>
+      <c s="19" t="inlineStr" r="AP40">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16.95" customHeight="0">
       <c s="2" t="str" r="A41"/>
@@ -4075,47 +7089,116 @@
         </is>
       </c>
       <c s="26" r="F41">
-        <v>2333.1</v>
+        <v>2344.8</v>
       </c>
       <c s="26" r="G41">
         <v>2211.3</v>
       </c>
       <c s="26" r="H41">
-        <v>1713.5</v>
+        <v>1866.5</v>
       </c>
       <c s="26" r="I41">
-        <v>2020.4</v>
+        <v>2022.6</v>
       </c>
       <c s="26" r="J41">
-        <v>0</v>
+        <v>3160.8</v>
       </c>
       <c s="26" r="K41">
-        <v>4544.4</v>
+        <v>3416.3</v>
       </c>
       <c s="26" r="L41">
-        <v>3733.9</v>
+        <v>3313.1</v>
       </c>
       <c s="27" t="str" r="M41"/>
       <c s="27" t="str" r="N41"/>
       <c s="26" r="O41">
-        <v>8278.3</v>
-      </c>
-      <c s="28" t="inlineStr" r="P41">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="28" t="inlineStr" r="Q41">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="16" t="inlineStr" r="R41">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="2" t="str" r="S41"/>
+        <v>2724.7</v>
+      </c>
+      <c s="26" r="P41">
+        <v>2407</v>
+      </c>
+      <c s="26" r="Q41">
+        <v>2269.1</v>
+      </c>
+      <c s="26" r="R41">
+        <v>2365.7</v>
+      </c>
+      <c s="26" r="S41">
+        <v>3785.9</v>
+      </c>
+      <c s="27" t="str" r="T41"/>
+      <c s="26" r="U41">
+        <v>2768.6</v>
+      </c>
+      <c s="26" r="V41">
+        <v>4024.7</v>
+      </c>
+      <c s="26" r="W41">
+        <v>3869.8</v>
+      </c>
+      <c s="26" r="X41">
+        <v>3347.4</v>
+      </c>
+      <c s="26" r="Y41">
+        <v>2930</v>
+      </c>
+      <c s="26" r="Z41">
+        <v>3695.2</v>
+      </c>
+      <c s="26" r="AA41">
+        <v>4684.2</v>
+      </c>
+      <c s="26" r="AB41">
+        <v>2800.6</v>
+      </c>
+      <c s="26" r="AC41">
+        <v>4714.1</v>
+      </c>
+      <c s="26" r="AD41">
+        <v>2435.8</v>
+      </c>
+      <c s="26" r="AE41">
+        <v>4104.9</v>
+      </c>
+      <c s="26" r="AF41">
+        <v>1897</v>
+      </c>
+      <c s="26" r="AG41">
+        <v>1870.9</v>
+      </c>
+      <c s="26" r="AH41">
+        <v>3505.6</v>
+      </c>
+      <c s="26" r="AI41">
+        <v>3865.1</v>
+      </c>
+      <c s="26" r="AJ41">
+        <v>0</v>
+      </c>
+      <c s="26" r="AK41">
+        <v>63484.7</v>
+      </c>
+      <c s="26" r="AL41">
+        <v>18917</v>
+      </c>
+      <c s="26" r="AM41">
+        <v>82401.7</v>
+      </c>
+      <c s="28" t="inlineStr" r="AN41">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="28" t="inlineStr" r="AO41">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="19" t="inlineStr" r="AP41">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
     </row>
     <row r="42" ht="0.05" customHeight="1">
       <c s="2" t="str" r="A42"/>
@@ -4137,6 +7220,29 @@
       <c s="2" t="str" r="Q42"/>
       <c s="2" t="str" r="R42"/>
       <c s="2" t="str" r="S42"/>
+      <c s="2" t="str" r="T42"/>
+      <c s="2" t="str" r="U42"/>
+      <c s="2" t="str" r="V42"/>
+      <c s="2" t="str" r="W42"/>
+      <c s="2" t="str" r="X42"/>
+      <c s="2" t="str" r="Y42"/>
+      <c s="2" t="str" r="Z42"/>
+      <c s="2" t="str" r="AA42"/>
+      <c s="2" t="str" r="AB42"/>
+      <c s="2" t="str" r="AC42"/>
+      <c s="2" t="str" r="AD42"/>
+      <c s="2" t="str" r="AE42"/>
+      <c s="2" t="str" r="AF42"/>
+      <c s="2" t="str" r="AG42"/>
+      <c s="2" t="str" r="AH42"/>
+      <c s="2" t="str" r="AI42"/>
+      <c s="2" t="str" r="AJ42"/>
+      <c s="2" t="str" r="AK42"/>
+      <c s="2" t="str" r="AL42"/>
+      <c s="2" t="str" r="AM42"/>
+      <c s="2" t="str" r="AN42"/>
+      <c s="2" t="str" r="AO42"/>
+      <c s="2" t="str" r="AP42"/>
     </row>
     <row r="43" ht="0.45" customHeight="1">
       <c s="2" t="str" r="A43"/>
@@ -4158,58 +7264,119 @@
       <c s="2" t="str" r="Q43"/>
       <c s="2" t="str" r="R43"/>
       <c s="2" t="str" r="S43"/>
+      <c s="2" t="str" r="T43"/>
+      <c s="2" t="str" r="U43"/>
+      <c s="2" t="str" r="V43"/>
+      <c s="2" t="str" r="W43"/>
+      <c s="2" t="str" r="X43"/>
+      <c s="2" t="str" r="Y43"/>
+      <c s="2" t="str" r="Z43"/>
+      <c s="2" t="str" r="AA43"/>
+      <c s="2" t="str" r="AB43"/>
+      <c s="2" t="str" r="AC43"/>
+      <c s="2" t="str" r="AD43"/>
+      <c s="2" t="str" r="AE43"/>
+      <c s="2" t="str" r="AF43"/>
+      <c s="2" t="str" r="AG43"/>
+      <c s="2" t="str" r="AH43"/>
+      <c s="2" t="str" r="AI43"/>
+      <c s="2" t="str" r="AJ43"/>
+      <c s="2" t="str" r="AK43"/>
+      <c s="2" t="str" r="AL43"/>
+      <c s="2" t="str" r="AM43"/>
+      <c s="2" t="str" r="AN43"/>
+      <c s="2" t="str" r="AO43"/>
+      <c s="2" t="str" r="AP43"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="L5:N5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="L6:N6"/>
+    <mergeCell ref="S6:T6"/>
     <mergeCell ref="L7:N7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="L8:N8"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="L9:N9"/>
+    <mergeCell ref="S9:T9"/>
     <mergeCell ref="L10:N10"/>
+    <mergeCell ref="S10:T10"/>
     <mergeCell ref="L11:N11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="L12:N12"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="L13:N13"/>
+    <mergeCell ref="S13:T13"/>
     <mergeCell ref="L14:N14"/>
+    <mergeCell ref="S14:T14"/>
     <mergeCell ref="L15:N15"/>
+    <mergeCell ref="S15:T15"/>
     <mergeCell ref="L16:N16"/>
+    <mergeCell ref="S16:T16"/>
     <mergeCell ref="L17:N17"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="L18:N18"/>
+    <mergeCell ref="S18:T18"/>
     <mergeCell ref="L19:N19"/>
+    <mergeCell ref="S19:T19"/>
     <mergeCell ref="L20:N20"/>
+    <mergeCell ref="S20:T20"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="L22:N22"/>
+    <mergeCell ref="S22:T22"/>
     <mergeCell ref="L23:N23"/>
+    <mergeCell ref="S23:T23"/>
     <mergeCell ref="L24:N24"/>
+    <mergeCell ref="S24:T24"/>
     <mergeCell ref="L25:N25"/>
+    <mergeCell ref="S25:T25"/>
     <mergeCell ref="L26:N26"/>
+    <mergeCell ref="S26:T26"/>
     <mergeCell ref="L27:N27"/>
+    <mergeCell ref="S27:T27"/>
     <mergeCell ref="L28:N28"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="L29:N29"/>
+    <mergeCell ref="S29:T29"/>
     <mergeCell ref="L30:N30"/>
+    <mergeCell ref="S30:T30"/>
     <mergeCell ref="L31:N31"/>
+    <mergeCell ref="S31:T31"/>
     <mergeCell ref="L32:N32"/>
+    <mergeCell ref="S32:T32"/>
     <mergeCell ref="L33:N33"/>
+    <mergeCell ref="S33:T33"/>
     <mergeCell ref="L34:N34"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="L35:N35"/>
+    <mergeCell ref="S35:T35"/>
     <mergeCell ref="L36:N36"/>
+    <mergeCell ref="S36:T36"/>
     <mergeCell ref="L37:N37"/>
+    <mergeCell ref="S37:T37"/>
     <mergeCell ref="L38:N38"/>
+    <mergeCell ref="S38:T38"/>
     <mergeCell ref="L39:N39"/>
+    <mergeCell ref="S39:T39"/>
     <mergeCell ref="L40:N40"/>
+    <mergeCell ref="S40:T40"/>
     <mergeCell ref="L41:N41"/>
+    <mergeCell ref="S41:T41"/>
   </mergeCells>
   <pageMargins left="0.196850393700787" right="0.118110236220472" top="0.118110236220472" bottom="0.445326771653543" header="0.118110236220472" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L
- &amp;R&amp;"Arial,Bold"&amp;7 Creado 15/01/2024 1:38 p.m. Por jromero89@slb.com 
+ &amp;C&amp;"Arial,Bold"&amp;7 Creado 7/02/2024 1:18 p.m. Por jromero89@slb.com 
 &amp;"-,Bold"Página 1 de 1 </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
